--- a/input/Test plan Nicky ver 1.xlsx
+++ b/input/Test plan Nicky ver 1.xlsx
@@ -1,29 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\QWAY\NGUYEN_VIETANH\02.Test plan\23. NICKY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongxuantruong/Desktop/Ngoc Son internal TSS converter/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94782875-D7B4-4131-9134-5FA37E64D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67058290-377F-6548-BFE4-52D1593C69BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Finished product" sheetId="2" r:id="rId1"/>
-    <sheet name="Textile" sheetId="4" r:id="rId2"/>
+    <sheet name="F-Finished product" sheetId="2" r:id="rId1"/>
+    <sheet name="M-Textile" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Finished product'!$A$19:$AK$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Textile!$A$20:$AN$491</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'F-Finished product'!$A$19:$AK$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'M-Textile'!$A$20:$AN$491</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2354,7 +2365,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2409,6 +2420,7 @@
     <font>
       <sz val="11"/>
       <name val="돋움"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -3625,6 +3637,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3687,33 +3726,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3893,13 +3905,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3908,55 +3913,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4023,6 +3979,62 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4045,9 +4057,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4085,7 +4097,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4191,7 +4203,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4333,7 +4345,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4349,49 +4361,49 @@
       <selection pane="topRight" activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="98.25" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="98.25" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="136" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="136" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="20.77734375" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="24.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="24.1640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" style="142" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="137" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="137" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="137" customWidth="1"/>
     <col min="11" max="11" width="22.6640625" style="35" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.44140625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.5" style="8" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="21.33203125" style="137" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="23.6640625" style="137" customWidth="1"/>
     <col min="16" max="16" width="24.6640625" style="137" customWidth="1"/>
     <col min="17" max="17" width="16.6640625" style="138" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="10.6640625" style="138" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="11.109375" style="138" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="16.88671875" style="138" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="11.1640625" style="138" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="16.83203125" style="138" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="24.6640625" style="8" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="35.33203125" style="138" customWidth="1" outlineLevel="1"/>
     <col min="23" max="23" width="15.33203125" style="8" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="11.6640625" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="20.109375" style="138" customWidth="1"/>
-    <col min="26" max="26" width="22.44140625" style="138" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" style="8" customWidth="1"/>
-    <col min="28" max="28" width="11.109375" style="8" customWidth="1"/>
-    <col min="29" max="29" width="15.88671875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="20.1640625" style="138" customWidth="1"/>
+    <col min="26" max="26" width="22.5" style="138" customWidth="1"/>
+    <col min="27" max="27" width="13.83203125" style="8" customWidth="1"/>
+    <col min="28" max="28" width="11.1640625" style="8" customWidth="1"/>
+    <col min="29" max="29" width="15.83203125" style="8" customWidth="1"/>
     <col min="30" max="30" width="7.6640625" style="8" customWidth="1"/>
-    <col min="31" max="31" width="18.44140625" style="139" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="26.44140625" style="138" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="22.44140625" style="138" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="13.88671875" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="18.5" style="139" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="26.5" style="138" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="22.5" style="138" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="13.83203125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="35" max="35" width="21.6640625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="15.88671875" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="15.83203125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="37" max="37" width="7.6640625" style="8" collapsed="1"/>
     <col min="38" max="16384" width="7.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="19.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4418,10 +4430,10 @@
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="357" t="s">
+      <c r="Y1" s="339" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="358"/>
+      <c r="Z1" s="340"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="7"/>
@@ -4429,11 +4441,11 @@
         <f t="shared" ref="AE1:AJ19" si="0">IF(X1&lt;&gt;"",X1,"")</f>
         <v/>
       </c>
-      <c r="AF1" s="357" t="str">
+      <c r="AF1" s="339" t="str">
         <f t="shared" si="0"/>
         <v>Mã số: BM-KĐ-14</v>
       </c>
-      <c r="AG1" s="358" t="str">
+      <c r="AG1" s="340" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4450,7 +4462,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="18" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4475,10 +4487,10 @@
       <c r="V2" s="13"/>
       <c r="W2" s="14"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="359" t="s">
+      <c r="Y2" s="341" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="360"/>
+      <c r="Z2" s="342"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
       <c r="AC2" s="7"/>
@@ -4486,11 +4498,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF2" s="359" t="str">
+      <c r="AF2" s="341" t="str">
         <f t="shared" si="0"/>
         <v>Ngày ban hành: 01/7/2015</v>
       </c>
-      <c r="AG2" s="360" t="str">
+      <c r="AG2" s="342" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4507,30 +4519,30 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="17.25" customHeight="1">
       <c r="A3" s="10"/>
-      <c r="B3" s="361" t="s">
+      <c r="B3" s="343" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="361"/>
-      <c r="D3" s="361"/>
-      <c r="E3" s="361"/>
-      <c r="F3" s="361"/>
-      <c r="G3" s="361"/>
-      <c r="H3" s="361"/>
-      <c r="I3" s="361"/>
-      <c r="J3" s="361"/>
-      <c r="K3" s="361"/>
-      <c r="L3" s="361"/>
-      <c r="M3" s="361"/>
-      <c r="N3" s="361"/>
-      <c r="O3" s="361"/>
-      <c r="P3" s="361"/>
-      <c r="Q3" s="361"/>
-      <c r="R3" s="361"/>
-      <c r="S3" s="361"/>
-      <c r="T3" s="361"/>
-      <c r="U3" s="361"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="343"/>
+      <c r="E3" s="343"/>
+      <c r="F3" s="343"/>
+      <c r="G3" s="343"/>
+      <c r="H3" s="343"/>
+      <c r="I3" s="343"/>
+      <c r="J3" s="343"/>
+      <c r="K3" s="343"/>
+      <c r="L3" s="343"/>
+      <c r="M3" s="343"/>
+      <c r="N3" s="343"/>
+      <c r="O3" s="343"/>
+      <c r="P3" s="343"/>
+      <c r="Q3" s="343"/>
+      <c r="R3" s="343"/>
+      <c r="S3" s="343"/>
+      <c r="T3" s="343"/>
+      <c r="U3" s="343"/>
       <c r="V3" s="145"/>
       <c r="W3" s="17"/>
       <c r="X3" s="18"/>
@@ -4566,28 +4578,28 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1">
       <c r="A4" s="21"/>
-      <c r="B4" s="362"/>
-      <c r="C4" s="362"/>
-      <c r="D4" s="362"/>
-      <c r="E4" s="362"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="362"/>
-      <c r="H4" s="362"/>
-      <c r="I4" s="362"/>
-      <c r="J4" s="362"/>
-      <c r="K4" s="362"/>
-      <c r="L4" s="362"/>
-      <c r="M4" s="362"/>
-      <c r="N4" s="362"/>
-      <c r="O4" s="362"/>
-      <c r="P4" s="362"/>
-      <c r="Q4" s="362"/>
-      <c r="R4" s="362"/>
-      <c r="S4" s="362"/>
-      <c r="T4" s="362"/>
-      <c r="U4" s="362"/>
+      <c r="B4" s="344"/>
+      <c r="C4" s="344"/>
+      <c r="D4" s="344"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="344"/>
+      <c r="G4" s="344"/>
+      <c r="H4" s="344"/>
+      <c r="I4" s="344"/>
+      <c r="J4" s="344"/>
+      <c r="K4" s="344"/>
+      <c r="L4" s="344"/>
+      <c r="M4" s="344"/>
+      <c r="N4" s="344"/>
+      <c r="O4" s="344"/>
+      <c r="P4" s="344"/>
+      <c r="Q4" s="344"/>
+      <c r="R4" s="344"/>
+      <c r="S4" s="344"/>
+      <c r="T4" s="344"/>
+      <c r="U4" s="344"/>
       <c r="V4" s="146"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
@@ -4623,7 +4635,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:36" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="31" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="26"/>
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
@@ -4676,7 +4688,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:36" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="34"/>
@@ -4727,16 +4739,16 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:36" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" s="31" customFormat="1" ht="35.25" customHeight="1">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="363"/>
-      <c r="D7" s="364"/>
-      <c r="E7" s="364"/>
-      <c r="F7" s="364"/>
-      <c r="G7" s="364"/>
-      <c r="H7" s="364"/>
-      <c r="I7" s="364"/>
+      <c r="C7" s="336"/>
+      <c r="D7" s="337"/>
+      <c r="E7" s="337"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="337"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="337"/>
       <c r="J7" s="147"/>
       <c r="K7" s="30"/>
       <c r="N7" s="32"/>
@@ -4750,10 +4762,10 @@
       <c r="V7" s="46"/>
       <c r="W7" s="47"/>
       <c r="X7" s="47"/>
-      <c r="Y7" s="365" t="s">
+      <c r="Y7" s="338" t="s">
         <v>6</v>
       </c>
-      <c r="Z7" s="365"/>
+      <c r="Z7" s="338"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="49"/>
       <c r="AC7" s="38"/>
@@ -4761,7 +4773,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF7" s="363" t="str">
+      <c r="AF7" s="336" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Ký hiệu viết tắt: 
 TR: Test Report
@@ -4769,7 +4781,7 @@
 NA: Not applicable
 </v>
       </c>
-      <c r="AG7" s="365" t="str">
+      <c r="AG7" s="338" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4786,7 +4798,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:36" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="31" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="39"/>
@@ -4809,8 +4821,8 @@
       <c r="V8" s="40"/>
       <c r="W8" s="51"/>
       <c r="X8" s="33"/>
-      <c r="Y8" s="365"/>
-      <c r="Z8" s="365"/>
+      <c r="Y8" s="338"/>
+      <c r="Z8" s="338"/>
       <c r="AA8" s="48"/>
       <c r="AB8" s="49"/>
       <c r="AC8" s="38"/>
@@ -4818,11 +4830,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF8" s="363" t="str">
+      <c r="AF8" s="336" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG8" s="365" t="str">
+      <c r="AG8" s="338" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4839,7 +4851,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:36" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="147"/>
@@ -4892,7 +4904,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:36" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="147"/>
@@ -4925,7 +4937,7 @@
       <c r="AG10" s="54"/>
       <c r="AJ10" s="55"/>
     </row>
-    <row r="11" spans="1:36" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -4962,7 +4974,7 @@
       <c r="AG11" s="54"/>
       <c r="AJ11" s="55"/>
     </row>
-    <row r="12" spans="1:36" s="31" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" s="31" customFormat="1" ht="52.5" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="176" t="s">
         <v>9</v>
@@ -5012,12 +5024,12 @@
       <c r="AF12" s="54"/>
       <c r="AI12" s="55"/>
     </row>
-    <row r="13" spans="1:36" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" s="31" customFormat="1" ht="50" customHeight="1">
       <c r="A13" s="26"/>
-      <c r="B13" s="348">
+      <c r="B13" s="357">
         <v>20143</v>
       </c>
-      <c r="C13" s="351" t="s">
+      <c r="C13" s="360" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="58" t="s">
@@ -5026,19 +5038,19 @@
       <c r="E13" s="194" t="s">
         <v>388</v>
       </c>
-      <c r="F13" s="354" t="s">
+      <c r="F13" s="363" t="s">
         <v>508</v>
       </c>
-      <c r="G13" s="354" t="s">
+      <c r="G13" s="363" t="s">
         <v>385</v>
       </c>
-      <c r="H13" s="354" t="s">
+      <c r="H13" s="363" t="s">
         <v>386</v>
       </c>
-      <c r="I13" s="336">
+      <c r="I13" s="345">
         <v>1</v>
       </c>
-      <c r="J13" s="339">
+      <c r="J13" s="348">
         <v>45934</v>
       </c>
       <c r="K13" s="34"/>
@@ -5062,21 +5074,21 @@
       <c r="AF13" s="54"/>
       <c r="AI13" s="55"/>
     </row>
-    <row r="14" spans="1:36" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="31" customFormat="1" ht="50" customHeight="1">
       <c r="A14" s="26"/>
-      <c r="B14" s="349"/>
-      <c r="C14" s="352"/>
+      <c r="B14" s="358"/>
+      <c r="C14" s="361"/>
       <c r="D14" s="58" t="s">
         <v>382</v>
       </c>
       <c r="E14" s="194">
         <v>70617495</v>
       </c>
-      <c r="F14" s="355"/>
-      <c r="G14" s="355"/>
-      <c r="H14" s="355"/>
-      <c r="I14" s="337"/>
-      <c r="J14" s="340"/>
+      <c r="F14" s="364"/>
+      <c r="G14" s="364"/>
+      <c r="H14" s="364"/>
+      <c r="I14" s="346"/>
+      <c r="J14" s="349"/>
       <c r="K14" s="30"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
@@ -5099,21 +5111,21 @@
       <c r="AG14" s="54"/>
       <c r="AJ14" s="55"/>
     </row>
-    <row r="15" spans="1:36" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" s="31" customFormat="1" ht="50" customHeight="1">
       <c r="A15" s="26"/>
-      <c r="B15" s="350"/>
-      <c r="C15" s="353"/>
+      <c r="B15" s="359"/>
+      <c r="C15" s="362"/>
       <c r="D15" s="58" t="s">
         <v>383</v>
       </c>
       <c r="E15" s="194" t="s">
         <v>384</v>
       </c>
-      <c r="F15" s="356"/>
-      <c r="G15" s="356"/>
-      <c r="H15" s="356"/>
-      <c r="I15" s="338"/>
-      <c r="J15" s="341"/>
+      <c r="F15" s="365"/>
+      <c r="G15" s="365"/>
+      <c r="H15" s="365"/>
+      <c r="I15" s="347"/>
+      <c r="J15" s="350"/>
       <c r="K15" s="30"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
@@ -5136,7 +5148,7 @@
       <c r="AG15" s="54"/>
       <c r="AJ15" s="55"/>
     </row>
-    <row r="16" spans="1:36" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="147"/>
@@ -5189,7 +5201,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:36" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" s="31" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="59"/>
       <c r="C17" s="60"/>
@@ -5233,23 +5245,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI17" s="343" t="s">
+      <c r="AI17" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="AJ17" s="344"/>
-    </row>
-    <row r="18" spans="1:36" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="342" t="s">
+      <c r="AJ17" s="353"/>
+    </row>
+    <row r="18" spans="1:36" ht="43.5" customHeight="1">
+      <c r="A18" s="351" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="342"/>
-      <c r="C18" s="342"/>
-      <c r="D18" s="342"/>
-      <c r="E18" s="342"/>
-      <c r="F18" s="342"/>
-      <c r="G18" s="342"/>
-      <c r="H18" s="342"/>
-      <c r="I18" s="342"/>
+      <c r="B18" s="351"/>
+      <c r="C18" s="351"/>
+      <c r="D18" s="351"/>
+      <c r="E18" s="351"/>
+      <c r="F18" s="351"/>
+      <c r="G18" s="351"/>
+      <c r="H18" s="351"/>
+      <c r="I18" s="351"/>
       <c r="J18" s="62"/>
       <c r="K18" s="180"/>
       <c r="L18" s="64" t="s">
@@ -5301,7 +5313,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:36" s="81" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" s="81" customFormat="1" ht="50" customHeight="1">
       <c r="A19" s="182" t="s">
         <v>22</v>
       </c>
@@ -5415,7 +5427,7 @@
 date</v>
       </c>
     </row>
-    <row r="20" spans="1:36" s="104" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" s="104" customFormat="1" ht="69.5" customHeight="1">
       <c r="A20" s="107">
         <v>1</v>
       </c>
@@ -5486,8 +5498,8 @@
       <c r="AI20" s="135"/>
       <c r="AJ20" s="134"/>
     </row>
-    <row r="21" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="345">
+    <row r="21" spans="1:36" ht="98.25" customHeight="1">
+      <c r="A21" s="354">
         <v>2</v>
       </c>
       <c r="B21" s="209" t="s">
@@ -5551,8 +5563,8 @@
       <c r="AB21" s="154"/>
       <c r="AC21" s="154"/>
     </row>
-    <row r="22" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="346"/>
+    <row r="22" spans="1:36" ht="98.25" customHeight="1">
+      <c r="A22" s="355"/>
       <c r="B22" s="161"/>
       <c r="C22" s="200"/>
       <c r="E22" s="200"/>
@@ -5609,8 +5621,8 @@
       <c r="AB22" s="154"/>
       <c r="AC22" s="154"/>
     </row>
-    <row r="23" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="346"/>
+    <row r="23" spans="1:36" ht="98.25" customHeight="1">
+      <c r="A23" s="355"/>
       <c r="B23" s="161"/>
       <c r="C23" s="200"/>
       <c r="E23" s="200"/>
@@ -5667,8 +5679,8 @@
       <c r="AB23" s="154"/>
       <c r="AC23" s="154"/>
     </row>
-    <row r="24" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="347"/>
+    <row r="24" spans="1:36" ht="98.25" customHeight="1">
+      <c r="A24" s="356"/>
       <c r="B24" s="210"/>
       <c r="C24" s="201"/>
       <c r="D24" s="211"/>
@@ -5728,7 +5740,7 @@
       <c r="AB24" s="154"/>
       <c r="AC24" s="154"/>
     </row>
-    <row r="25" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="98.25" customHeight="1">
       <c r="A25" s="140">
         <v>3</v>
       </c>
@@ -5790,7 +5802,7 @@
       <c r="AB25" s="154"/>
       <c r="AC25" s="154"/>
     </row>
-    <row r="26" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="98.25" customHeight="1">
       <c r="B26" s="248"/>
       <c r="D26" s="250"/>
       <c r="F26" s="250"/>
@@ -5844,7 +5856,7 @@
       <c r="AB26" s="154"/>
       <c r="AC26" s="154"/>
     </row>
-    <row r="27" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="98.25" customHeight="1">
       <c r="C27" s="250"/>
       <c r="E27" s="250"/>
       <c r="G27" s="126">
@@ -5897,7 +5909,7 @@
       <c r="AB27" s="154"/>
       <c r="AC27" s="154"/>
     </row>
-    <row r="28" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="98.25" customHeight="1">
       <c r="C28" s="250"/>
       <c r="E28" s="250"/>
       <c r="G28" s="126">
@@ -5950,7 +5962,7 @@
       <c r="AB28" s="154"/>
       <c r="AC28" s="154"/>
     </row>
-    <row r="29" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="98.25" customHeight="1">
       <c r="A29" s="211"/>
       <c r="B29" s="255"/>
       <c r="C29" s="256"/>
@@ -6007,7 +6019,7 @@
       <c r="AB29" s="154"/>
       <c r="AC29" s="154"/>
     </row>
-    <row r="30" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="98.25" customHeight="1">
       <c r="A30" s="107">
         <v>4</v>
       </c>
@@ -6072,7 +6084,7 @@
       <c r="AB30" s="154"/>
       <c r="AC30" s="154"/>
     </row>
-    <row r="31" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="98.25" customHeight="1">
       <c r="A31" s="107">
         <v>4</v>
       </c>
@@ -6140,16 +6152,6 @@
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
   <mergeCells count="20">
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B3:U4"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="A18:I18"/>
@@ -6160,6 +6162,16 @@
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="H13:H15"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="B3:U4"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
   </mergeCells>
   <conditionalFormatting sqref="W1:W11 V12:V13 W14:W19 W21:W1048576">
     <cfRule type="notContainsBlanks" dxfId="36" priority="2">
@@ -6186,54 +6198,54 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A472" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="K493" sqref="K493"/>
+      <selection pane="topRight" activeCell="G488" sqref="G488"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="98.25" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="98.25" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="140" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="140" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="140" customWidth="1"/>
     <col min="3" max="3" width="17" style="140" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" style="136" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="136" customWidth="1"/>
     <col min="5" max="5" width="18" style="8" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="35.5" style="8" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="23.33203125" style="8" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="17.6640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="20" style="8" customWidth="1"/>
-    <col min="10" max="11" width="17.109375" style="142" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="137" customWidth="1"/>
+    <col min="10" max="11" width="17.1640625" style="142" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" style="137" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" style="137" customWidth="1"/>
     <col min="14" max="14" width="22.6640625" style="35" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="16.44140625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="16.5" style="8" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="21.33203125" style="158" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="23.6640625" style="137" customWidth="1"/>
     <col min="19" max="19" width="24.6640625" style="137" customWidth="1"/>
     <col min="20" max="20" width="16.6640625" style="138" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="10.6640625" style="138" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="11.109375" style="138" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="16.88671875" style="138" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="11.1640625" style="138" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="16.83203125" style="138" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="24.6640625" style="8" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="17.33203125" style="138" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="15.33203125" style="8" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="11.6640625" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="20.109375" style="138" customWidth="1"/>
-    <col min="29" max="29" width="22.44140625" style="138" customWidth="1"/>
-    <col min="30" max="30" width="13.88671875" style="8" customWidth="1"/>
-    <col min="31" max="31" width="11.109375" style="8" customWidth="1"/>
-    <col min="32" max="32" width="15.88671875" style="8" customWidth="1"/>
+    <col min="28" max="28" width="20.1640625" style="138" customWidth="1"/>
+    <col min="29" max="29" width="22.5" style="138" customWidth="1"/>
+    <col min="30" max="30" width="13.83203125" style="8" customWidth="1"/>
+    <col min="31" max="31" width="11.1640625" style="8" customWidth="1"/>
+    <col min="32" max="32" width="15.83203125" style="8" customWidth="1"/>
     <col min="33" max="33" width="7.6640625" style="8" customWidth="1"/>
-    <col min="34" max="34" width="18.44140625" style="139" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="26.44140625" style="138" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="22.44140625" style="138" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="13.88671875" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="18.5" style="139" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="26.5" style="138" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="22.5" style="138" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="13.83203125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="38" max="38" width="21.6640625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="15.88671875" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="15.83203125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="7.6640625" style="8" collapsed="1"/>
     <col min="41" max="16384" width="7.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="19.5" customHeight="1">
       <c r="A1" s="149"/>
       <c r="B1" s="289"/>
       <c r="C1" s="289"/>
@@ -6263,10 +6275,10 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="2"/>
-      <c r="AB1" s="357" t="s">
+      <c r="AB1" s="339" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="358"/>
+      <c r="AC1" s="340"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
       <c r="AF1" s="7"/>
@@ -6274,11 +6286,11 @@
         <f t="shared" ref="AH1:AM20" si="0">IF(AA1&lt;&gt;"",AA1,"")</f>
         <v/>
       </c>
-      <c r="AI1" s="357" t="str">
+      <c r="AI1" s="339" t="str">
         <f t="shared" si="0"/>
         <v>Mã số: BM-KĐ-14</v>
       </c>
-      <c r="AJ1" s="358" t="str">
+      <c r="AJ1" s="340" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6295,7 +6307,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="18" customHeight="1">
       <c r="A2" s="150"/>
       <c r="B2" s="290"/>
       <c r="C2" s="290"/>
@@ -6323,10 +6335,10 @@
       <c r="Y2" s="13"/>
       <c r="Z2" s="14"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="359" t="s">
+      <c r="AB2" s="341" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="360"/>
+      <c r="AC2" s="342"/>
       <c r="AD2" s="15"/>
       <c r="AE2" s="15"/>
       <c r="AF2" s="7"/>
@@ -6334,11 +6346,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI2" s="359" t="str">
+      <c r="AI2" s="341" t="str">
         <f t="shared" si="0"/>
         <v>Ngày ban hành: 01/7/2015</v>
       </c>
-      <c r="AJ2" s="360" t="str">
+      <c r="AJ2" s="342" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6355,33 +6367,33 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="17.25" customHeight="1">
       <c r="A3" s="150"/>
       <c r="B3" s="290"/>
       <c r="C3" s="290"/>
-      <c r="D3" s="361" t="s">
+      <c r="D3" s="343" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="361"/>
-      <c r="F3" s="361"/>
-      <c r="G3" s="361"/>
-      <c r="H3" s="361"/>
-      <c r="I3" s="361"/>
-      <c r="J3" s="361"/>
-      <c r="K3" s="361"/>
-      <c r="L3" s="361"/>
-      <c r="M3" s="361"/>
-      <c r="N3" s="361"/>
-      <c r="O3" s="361"/>
-      <c r="P3" s="361"/>
+      <c r="E3" s="343"/>
+      <c r="F3" s="343"/>
+      <c r="G3" s="343"/>
+      <c r="H3" s="343"/>
+      <c r="I3" s="343"/>
+      <c r="J3" s="343"/>
+      <c r="K3" s="343"/>
+      <c r="L3" s="343"/>
+      <c r="M3" s="343"/>
+      <c r="N3" s="343"/>
+      <c r="O3" s="343"/>
+      <c r="P3" s="343"/>
       <c r="Q3" s="373"/>
-      <c r="R3" s="361"/>
-      <c r="S3" s="361"/>
-      <c r="T3" s="361"/>
-      <c r="U3" s="361"/>
-      <c r="V3" s="361"/>
-      <c r="W3" s="361"/>
-      <c r="X3" s="361"/>
+      <c r="R3" s="343"/>
+      <c r="S3" s="343"/>
+      <c r="T3" s="343"/>
+      <c r="U3" s="343"/>
+      <c r="V3" s="343"/>
+      <c r="W3" s="343"/>
+      <c r="X3" s="343"/>
       <c r="Y3" s="145"/>
       <c r="Z3" s="17"/>
       <c r="AA3" s="18"/>
@@ -6417,31 +6429,31 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15" customHeight="1">
       <c r="A4" s="151"/>
       <c r="B4" s="291"/>
       <c r="C4" s="291"/>
-      <c r="D4" s="362"/>
-      <c r="E4" s="362"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="362"/>
-      <c r="H4" s="362"/>
-      <c r="I4" s="362"/>
-      <c r="J4" s="362"/>
-      <c r="K4" s="362"/>
-      <c r="L4" s="362"/>
-      <c r="M4" s="362"/>
-      <c r="N4" s="362"/>
-      <c r="O4" s="362"/>
-      <c r="P4" s="362"/>
+      <c r="D4" s="344"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="344"/>
+      <c r="G4" s="344"/>
+      <c r="H4" s="344"/>
+      <c r="I4" s="344"/>
+      <c r="J4" s="344"/>
+      <c r="K4" s="344"/>
+      <c r="L4" s="344"/>
+      <c r="M4" s="344"/>
+      <c r="N4" s="344"/>
+      <c r="O4" s="344"/>
+      <c r="P4" s="344"/>
       <c r="Q4" s="374"/>
-      <c r="R4" s="362"/>
-      <c r="S4" s="362"/>
-      <c r="T4" s="362"/>
-      <c r="U4" s="362"/>
-      <c r="V4" s="362"/>
-      <c r="W4" s="362"/>
-      <c r="X4" s="362"/>
+      <c r="R4" s="344"/>
+      <c r="S4" s="344"/>
+      <c r="T4" s="344"/>
+      <c r="U4" s="344"/>
+      <c r="V4" s="344"/>
+      <c r="W4" s="344"/>
+      <c r="X4" s="344"/>
       <c r="Y4" s="146"/>
       <c r="Z4" s="22"/>
       <c r="AA4" s="22"/>
@@ -6477,7 +6489,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:39" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="31" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="152"/>
       <c r="B5" s="152"/>
       <c r="C5" s="152"/>
@@ -6533,7 +6545,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:39" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="152"/>
       <c r="B6" s="152"/>
       <c r="C6" s="152"/>
@@ -6587,19 +6599,19 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:39" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="31" customFormat="1" ht="35.25" customHeight="1">
       <c r="A7" s="152"/>
       <c r="B7" s="152"/>
       <c r="C7" s="152"/>
       <c r="D7" s="26"/>
-      <c r="E7" s="363"/>
-      <c r="F7" s="364"/>
-      <c r="G7" s="364"/>
-      <c r="H7" s="364"/>
-      <c r="I7" s="364"/>
-      <c r="J7" s="364"/>
-      <c r="K7" s="364"/>
-      <c r="L7" s="364"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="337"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="337"/>
+      <c r="J7" s="337"/>
+      <c r="K7" s="337"/>
+      <c r="L7" s="337"/>
       <c r="M7" s="147"/>
       <c r="N7" s="30"/>
       <c r="Q7" s="164"/>
@@ -6613,10 +6625,10 @@
       <c r="Y7" s="46"/>
       <c r="Z7" s="47"/>
       <c r="AA7" s="47"/>
-      <c r="AB7" s="365" t="s">
+      <c r="AB7" s="338" t="s">
         <v>221</v>
       </c>
-      <c r="AC7" s="365"/>
+      <c r="AC7" s="338"/>
       <c r="AD7" s="48"/>
       <c r="AE7" s="49"/>
       <c r="AF7" s="38"/>
@@ -6624,7 +6636,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI7" s="363" t="str">
+      <c r="AI7" s="336" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Ký hiệu viết tắt: 
 TR: Test Report
@@ -6633,7 +6645,7 @@
 SDS: Safety Data Sheet
 </v>
       </c>
-      <c r="AJ7" s="365" t="str">
+      <c r="AJ7" s="338" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6650,7 +6662,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:39" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="31" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="152"/>
       <c r="B8" s="152"/>
       <c r="C8" s="152"/>
@@ -6676,8 +6688,8 @@
       <c r="Y8" s="40"/>
       <c r="Z8" s="51"/>
       <c r="AA8" s="33"/>
-      <c r="AB8" s="365"/>
-      <c r="AC8" s="365"/>
+      <c r="AB8" s="338"/>
+      <c r="AC8" s="338"/>
       <c r="AD8" s="48"/>
       <c r="AE8" s="49"/>
       <c r="AF8" s="38"/>
@@ -6685,11 +6697,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI8" s="363" t="str">
+      <c r="AI8" s="336" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AJ8" s="365" t="str">
+      <c r="AJ8" s="338" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6706,7 +6718,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:39" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="152"/>
       <c r="B9" s="152"/>
       <c r="C9" s="152"/>
@@ -6762,7 +6774,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:39" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="152"/>
       <c r="B10" s="152"/>
       <c r="C10" s="152"/>
@@ -6798,7 +6810,7 @@
       <c r="AJ10" s="54"/>
       <c r="AM10" s="55"/>
     </row>
-    <row r="11" spans="1:39" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="152"/>
       <c r="B11" s="152"/>
       <c r="C11" s="152"/>
@@ -6838,7 +6850,7 @@
       <c r="AJ11" s="54"/>
       <c r="AM11" s="55"/>
     </row>
-    <row r="12" spans="1:39" s="31" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" s="31" customFormat="1" ht="52.5" customHeight="1">
       <c r="A12" s="152"/>
       <c r="B12" s="296" t="s">
         <v>9</v>
@@ -6891,7 +6903,7 @@
       <c r="AJ12" s="54"/>
       <c r="AM12" s="55"/>
     </row>
-    <row r="13" spans="1:39" s="31" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" s="31" customFormat="1" ht="52.5" customHeight="1">
       <c r="A13" s="152"/>
       <c r="B13" s="292"/>
       <c r="C13" s="293"/>
@@ -6932,7 +6944,7 @@
       <c r="AJ13" s="54"/>
       <c r="AM13" s="55"/>
     </row>
-    <row r="14" spans="1:39" s="31" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="31" customFormat="1" ht="52.5" customHeight="1">
       <c r="A14" s="152"/>
       <c r="B14" s="277">
         <v>20143</v>
@@ -6977,7 +6989,7 @@
       <c r="AJ14" s="54"/>
       <c r="AM14" s="55"/>
     </row>
-    <row r="15" spans="1:39" s="31" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="31" customFormat="1" ht="52.5" customHeight="1">
       <c r="A15" s="152"/>
       <c r="B15" s="294"/>
       <c r="C15" s="284"/>
@@ -7014,7 +7026,7 @@
       <c r="AJ15" s="54"/>
       <c r="AM15" s="55"/>
     </row>
-    <row r="16" spans="1:39" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="152"/>
       <c r="B16" s="152"/>
       <c r="C16" s="152"/>
@@ -7050,7 +7062,7 @@
       <c r="AJ16" s="54"/>
       <c r="AM16" s="55"/>
     </row>
-    <row r="17" spans="1:39" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="152"/>
       <c r="B17" s="152"/>
       <c r="C17" s="152"/>
@@ -7106,7 +7118,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:39" s="31" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" s="31" customFormat="1" ht="10.25" customHeight="1">
       <c r="A18" s="152"/>
       <c r="B18" s="152"/>
       <c r="C18" s="152"/>
@@ -7153,26 +7165,26 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL18" s="343" t="s">
+      <c r="AL18" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="AM18" s="344"/>
-    </row>
-    <row r="19" spans="1:39" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM18" s="353"/>
+    </row>
+    <row r="19" spans="1:39" ht="44.5" customHeight="1">
       <c r="A19" s="366" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="366"/>
       <c r="C19" s="366"/>
-      <c r="D19" s="342"/>
-      <c r="E19" s="342"/>
-      <c r="F19" s="342"/>
-      <c r="G19" s="342"/>
-      <c r="H19" s="342"/>
-      <c r="I19" s="342"/>
-      <c r="J19" s="342"/>
-      <c r="K19" s="342"/>
-      <c r="L19" s="342"/>
+      <c r="D19" s="351"/>
+      <c r="E19" s="351"/>
+      <c r="F19" s="351"/>
+      <c r="G19" s="351"/>
+      <c r="H19" s="351"/>
+      <c r="I19" s="351"/>
+      <c r="J19" s="351"/>
+      <c r="K19" s="351"/>
+      <c r="L19" s="351"/>
       <c r="M19" s="62"/>
       <c r="N19" s="63"/>
       <c r="O19" s="64" t="s">
@@ -7222,7 +7234,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:39" s="81" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" s="81" customFormat="1" ht="57" customHeight="1">
       <c r="A20" s="75" t="s">
         <v>22</v>
       </c>
@@ -7345,7 +7357,7 @@
 date</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A21" s="198">
         <v>1</v>
       </c>
@@ -7446,7 +7458,7 @@
         <v>2958373</v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A22" s="198">
         <v>1</v>
       </c>
@@ -7531,7 +7543,7 @@
         <v>2958373</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A23" s="198">
         <v>1</v>
       </c>
@@ -7603,7 +7615,7 @@
       <c r="AL23" s="105"/>
       <c r="AM23" s="102"/>
     </row>
-    <row r="24" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A24" s="198">
         <v>1</v>
       </c>
@@ -7683,7 +7695,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A25" s="198">
         <v>1</v>
       </c>
@@ -7753,7 +7765,7 @@
       <c r="AL25" s="105"/>
       <c r="AM25" s="102"/>
     </row>
-    <row r="26" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A26" s="198">
         <v>1</v>
       </c>
@@ -7823,7 +7835,7 @@
       <c r="AL26" s="105"/>
       <c r="AM26" s="102"/>
     </row>
-    <row r="27" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A27" s="198">
         <v>1</v>
       </c>
@@ -7893,7 +7905,7 @@
       <c r="AL27" s="105"/>
       <c r="AM27" s="102"/>
     </row>
-    <row r="28" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A28" s="198">
         <v>1</v>
       </c>
@@ -7963,7 +7975,7 @@
       <c r="AL28" s="105"/>
       <c r="AM28" s="102"/>
     </row>
-    <row r="29" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A29" s="198">
         <v>1</v>
       </c>
@@ -8033,7 +8045,7 @@
       <c r="AL29" s="105"/>
       <c r="AM29" s="102"/>
     </row>
-    <row r="30" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A30" s="198">
         <v>1</v>
       </c>
@@ -8113,7 +8125,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A31" s="198">
         <v>1</v>
       </c>
@@ -8191,7 +8203,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A32" s="198">
         <v>1</v>
       </c>
@@ -8279,7 +8291,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="33" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A33" s="198">
         <v>1</v>
       </c>
@@ -8359,7 +8371,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="34" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A34" s="198">
         <v>1</v>
       </c>
@@ -8435,7 +8447,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="35" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A35" s="198">
         <v>1</v>
       </c>
@@ -8515,7 +8527,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="36" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A36" s="198">
         <v>1</v>
       </c>
@@ -8591,7 +8603,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="37" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A37" s="198">
         <v>1</v>
       </c>
@@ -8671,7 +8683,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="38" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A38" s="198">
         <v>1</v>
       </c>
@@ -8747,7 +8759,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A39" s="198">
         <v>1</v>
       </c>
@@ -8829,7 +8841,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A40" s="198">
         <v>1</v>
       </c>
@@ -8905,7 +8917,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A41" s="198">
         <v>1</v>
       </c>
@@ -8987,7 +8999,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A42" s="198">
         <v>1</v>
       </c>
@@ -9067,7 +9079,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="43" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A43" s="198">
         <v>1</v>
       </c>
@@ -9155,7 +9167,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="44" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A44" s="198">
         <v>1</v>
       </c>
@@ -9235,7 +9247,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A45" s="198">
         <v>1</v>
       </c>
@@ -9311,7 +9323,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A46" s="198">
         <v>1</v>
       </c>
@@ -9391,7 +9403,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="47" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A47" s="198">
         <v>1</v>
       </c>
@@ -9465,7 +9477,7 @@
       <c r="AL47" s="105"/>
       <c r="AM47" s="102"/>
     </row>
-    <row r="48" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A48" s="198">
         <v>1</v>
       </c>
@@ -9545,7 +9557,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="49" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A49" s="198">
         <v>1</v>
       </c>
@@ -9617,7 +9629,7 @@
       <c r="AL49" s="105"/>
       <c r="AM49" s="102"/>
     </row>
-    <row r="50" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A50" s="198">
         <v>1</v>
       </c>
@@ -9687,7 +9699,7 @@
       <c r="AL50" s="105"/>
       <c r="AM50" s="102"/>
     </row>
-    <row r="51" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A51" s="198">
         <v>1</v>
       </c>
@@ -9747,7 +9759,7 @@
       <c r="AE51" s="103"/>
       <c r="AF51" s="103"/>
     </row>
-    <row r="52" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A52" s="198">
         <v>1</v>
       </c>
@@ -9843,7 +9855,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="53" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A53" s="198">
         <v>1</v>
       </c>
@@ -9923,7 +9935,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="54" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A54" s="198">
         <v>1</v>
       </c>
@@ -10003,7 +10015,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="55" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A55" s="198">
         <v>1</v>
       </c>
@@ -10083,7 +10095,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="56" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A56" s="198">
         <v>1</v>
       </c>
@@ -10163,7 +10175,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="57" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A57" s="198">
         <v>1</v>
       </c>
@@ -10243,7 +10255,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="58" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A58" s="198">
         <v>1</v>
       </c>
@@ -10323,7 +10335,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="59" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A59" s="198">
         <v>1</v>
       </c>
@@ -10393,7 +10405,7 @@
       <c r="AL59" s="105"/>
       <c r="AM59" s="102"/>
     </row>
-    <row r="60" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A60" s="198">
         <v>1</v>
       </c>
@@ -10463,7 +10475,7 @@
       <c r="AL60" s="105"/>
       <c r="AM60" s="102"/>
     </row>
-    <row r="61" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A61" s="198">
         <v>1</v>
       </c>
@@ -10533,7 +10545,7 @@
       <c r="AL61" s="105"/>
       <c r="AM61" s="102"/>
     </row>
-    <row r="62" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A62" s="198">
         <v>1</v>
       </c>
@@ -10603,7 +10615,7 @@
       <c r="AL62" s="105"/>
       <c r="AM62" s="102"/>
     </row>
-    <row r="63" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A63" s="198">
         <v>1</v>
       </c>
@@ -10673,7 +10685,7 @@
       <c r="AL63" s="105"/>
       <c r="AM63" s="102"/>
     </row>
-    <row r="64" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A64" s="198">
         <v>1</v>
       </c>
@@ -10743,7 +10755,7 @@
       <c r="AL64" s="105"/>
       <c r="AM64" s="102"/>
     </row>
-    <row r="65" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A65" s="198">
         <v>1</v>
       </c>
@@ -10813,7 +10825,7 @@
       <c r="AL65" s="105"/>
       <c r="AM65" s="102"/>
     </row>
-    <row r="66" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A66" s="198">
         <v>1</v>
       </c>
@@ -10883,7 +10895,7 @@
       <c r="AL66" s="105"/>
       <c r="AM66" s="102"/>
     </row>
-    <row r="67" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A67" s="198">
         <v>1</v>
       </c>
@@ -10953,7 +10965,7 @@
       <c r="AL67" s="105"/>
       <c r="AM67" s="102"/>
     </row>
-    <row r="68" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A68" s="198">
         <v>1</v>
       </c>
@@ -11023,7 +11035,7 @@
       <c r="AL68" s="105"/>
       <c r="AM68" s="102"/>
     </row>
-    <row r="69" spans="1:39" s="104" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" s="104" customFormat="1" ht="49.75" customHeight="1">
       <c r="A69" s="198">
         <v>1</v>
       </c>
@@ -11103,7 +11115,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A70" s="198">
         <v>1</v>
       </c>
@@ -11183,7 +11195,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="71" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A71" s="198">
         <v>1</v>
       </c>
@@ -11263,7 +11275,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="72" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A72" s="198">
         <v>1</v>
       </c>
@@ -11343,7 +11355,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="73" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A73" s="198">
         <v>1</v>
       </c>
@@ -11423,7 +11435,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="74" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A74" s="198">
         <v>1</v>
       </c>
@@ -11503,7 +11515,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="75" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A75" s="198">
         <v>1</v>
       </c>
@@ -11579,7 +11591,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="76" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A76" s="198">
         <v>1</v>
       </c>
@@ -11659,7 +11671,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="77" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A77" s="198">
         <v>1</v>
       </c>
@@ -11735,7 +11747,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A78" s="198">
         <v>1</v>
       </c>
@@ -11815,7 +11827,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="79" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A79" s="198">
         <v>1</v>
       </c>
@@ -11895,7 +11907,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="80" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A80" s="198">
         <v>1</v>
       </c>
@@ -11975,7 +11987,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="81" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A81" s="198">
         <v>1</v>
       </c>
@@ -12055,7 +12067,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="82" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A82" s="198">
         <v>1</v>
       </c>
@@ -12131,7 +12143,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="83" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A83" s="198">
         <v>1</v>
       </c>
@@ -12211,7 +12223,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="84" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A84" s="198">
         <v>1</v>
       </c>
@@ -12287,7 +12299,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="85" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A85" s="198">
         <v>1</v>
       </c>
@@ -12369,7 +12381,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="86" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A86" s="198">
         <v>1</v>
       </c>
@@ -12441,7 +12453,7 @@
       <c r="AL86" s="105"/>
       <c r="AM86" s="102"/>
     </row>
-    <row r="87" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A87" s="198">
         <v>1</v>
       </c>
@@ -12517,7 +12529,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="88" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A88" s="198">
         <v>1</v>
       </c>
@@ -12597,7 +12609,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="89" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A89" s="198">
         <v>1</v>
       </c>
@@ -12675,7 +12687,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A90" s="198">
         <v>1</v>
       </c>
@@ -12755,7 +12767,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="91" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A91" s="198">
         <v>1</v>
       </c>
@@ -12831,7 +12843,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="92" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A92" s="198">
         <v>1</v>
       </c>
@@ -12911,7 +12923,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="93" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A93" s="198">
         <v>1</v>
       </c>
@@ -12989,7 +13001,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="94" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A94" s="198">
         <v>1</v>
       </c>
@@ -13069,7 +13081,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="95" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A95" s="198">
         <v>1</v>
       </c>
@@ -13151,7 +13163,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="96" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A96" s="198">
         <v>1</v>
       </c>
@@ -13235,7 +13247,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="97" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A97" s="198">
         <v>1</v>
       </c>
@@ -13315,7 +13327,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="98" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A98" s="198">
         <v>1</v>
       </c>
@@ -13395,7 +13407,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="99" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A99" s="198">
         <v>1</v>
       </c>
@@ -13475,7 +13487,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="100" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A100" s="198">
         <v>1</v>
       </c>
@@ -13573,7 +13585,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="101" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A101" s="198">
         <v>1</v>
       </c>
@@ -13641,7 +13653,7 @@
       <c r="AL101" s="105"/>
       <c r="AM101" s="102"/>
     </row>
-    <row r="102" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A102" s="198">
         <v>1</v>
       </c>
@@ -13733,7 +13745,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A103" s="198">
         <v>1</v>
       </c>
@@ -13803,7 +13815,7 @@
       <c r="AL103" s="105"/>
       <c r="AM103" s="102"/>
     </row>
-    <row r="104" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A104" s="198">
         <v>1</v>
       </c>
@@ -13879,7 +13891,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="105" spans="1:39" s="104" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:39" s="104" customFormat="1" ht="49.75" customHeight="1">
       <c r="A105" s="198">
         <v>1</v>
       </c>
@@ -13955,7 +13967,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="106" spans="1:39" s="104" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:39" s="104" customFormat="1" ht="49.75" customHeight="1">
       <c r="A106" s="198">
         <v>1</v>
       </c>
@@ -14039,7 +14051,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="107" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A107" s="198">
         <v>1</v>
       </c>
@@ -14123,7 +14135,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="108" spans="1:39" s="104" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:39" s="104" customFormat="1" ht="49.75" customHeight="1">
       <c r="A108" s="198">
         <v>1</v>
       </c>
@@ -14207,7 +14219,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="109" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A109" s="198">
         <v>1</v>
       </c>
@@ -14277,7 +14289,7 @@
       <c r="AL109" s="105"/>
       <c r="AM109" s="102"/>
     </row>
-    <row r="110" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A110" s="198">
         <v>1</v>
       </c>
@@ -14363,7 +14375,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="111" spans="1:39" s="104" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:39" s="104" customFormat="1" ht="49.75" customHeight="1">
       <c r="A111" s="198">
         <v>1</v>
       </c>
@@ -14439,7 +14451,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A112" s="198">
         <v>1</v>
       </c>
@@ -14517,7 +14529,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A113" s="198">
         <v>1</v>
       </c>
@@ -14601,7 +14613,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="114" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A114" s="198">
         <v>1</v>
       </c>
@@ -14674,7 +14686,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="115" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A115" s="198">
         <v>1</v>
       </c>
@@ -14758,7 +14770,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="116" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A116" s="198">
         <v>1</v>
       </c>
@@ -14834,7 +14846,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="117" spans="1:39" s="104" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:39" s="104" customFormat="1" ht="49.75" customHeight="1">
       <c r="A117" s="198">
         <v>1</v>
       </c>
@@ -14918,7 +14930,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="118" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A118" s="198">
         <v>1</v>
       </c>
@@ -15004,7 +15016,7 @@
       <c r="AL118" s="144"/>
       <c r="AM118" s="143"/>
     </row>
-    <row r="119" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A119" s="198">
         <v>1</v>
       </c>
@@ -15090,7 +15102,7 @@
       <c r="AL119" s="135"/>
       <c r="AM119" s="134"/>
     </row>
-    <row r="120" spans="1:39" s="104" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:39" s="104" customFormat="1" ht="49.75" customHeight="1">
       <c r="A120" s="120">
         <v>1</v>
       </c>
@@ -15176,7 +15188,7 @@
       <c r="AL120" s="135"/>
       <c r="AM120" s="134"/>
     </row>
-    <row r="121" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A121" s="120">
         <v>1</v>
       </c>
@@ -15264,7 +15276,7 @@
       <c r="AL121" s="135"/>
       <c r="AM121" s="134"/>
     </row>
-    <row r="122" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A122" s="120">
         <v>1</v>
       </c>
@@ -15350,7 +15362,7 @@
       <c r="AL122" s="135"/>
       <c r="AM122" s="134"/>
     </row>
-    <row r="123" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A123" s="120">
         <v>1</v>
       </c>
@@ -15420,7 +15432,7 @@
       <c r="AL123" s="135"/>
       <c r="AM123" s="134"/>
     </row>
-    <row r="124" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A124" s="120">
         <v>1</v>
       </c>
@@ -15490,7 +15502,7 @@
       <c r="AL124" s="135"/>
       <c r="AM124" s="134"/>
     </row>
-    <row r="125" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A125" s="120">
         <v>1</v>
       </c>
@@ -15560,7 +15572,7 @@
       <c r="AL125" s="135"/>
       <c r="AM125" s="134"/>
     </row>
-    <row r="126" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A126" s="120">
         <v>1</v>
       </c>
@@ -15630,7 +15642,7 @@
       <c r="AL126" s="135"/>
       <c r="AM126" s="134"/>
     </row>
-    <row r="127" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A127" s="198">
         <v>2</v>
       </c>
@@ -15731,7 +15743,7 @@
         <v>2958373</v>
       </c>
     </row>
-    <row r="128" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A128" s="198">
         <v>2</v>
       </c>
@@ -15816,7 +15828,7 @@
         <v>2958373</v>
       </c>
     </row>
-    <row r="129" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A129" s="198">
         <v>2</v>
       </c>
@@ -15888,7 +15900,7 @@
       <c r="AL129" s="105"/>
       <c r="AM129" s="102"/>
     </row>
-    <row r="130" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A130" s="198">
         <v>2</v>
       </c>
@@ -15968,7 +15980,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="131" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A131" s="198">
         <v>2</v>
       </c>
@@ -16038,7 +16050,7 @@
       <c r="AL131" s="105"/>
       <c r="AM131" s="102"/>
     </row>
-    <row r="132" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A132" s="198">
         <v>2</v>
       </c>
@@ -16108,7 +16120,7 @@
       <c r="AL132" s="105"/>
       <c r="AM132" s="102"/>
     </row>
-    <row r="133" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A133" s="198">
         <v>2</v>
       </c>
@@ -16178,7 +16190,7 @@
       <c r="AL133" s="105"/>
       <c r="AM133" s="102"/>
     </row>
-    <row r="134" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A134" s="198">
         <v>2</v>
       </c>
@@ -16248,7 +16260,7 @@
       <c r="AL134" s="105"/>
       <c r="AM134" s="102"/>
     </row>
-    <row r="135" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A135" s="198">
         <v>2</v>
       </c>
@@ -16318,7 +16330,7 @@
       <c r="AL135" s="105"/>
       <c r="AM135" s="102"/>
     </row>
-    <row r="136" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A136" s="198">
         <v>2</v>
       </c>
@@ -16398,7 +16410,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="137" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A137" s="198">
         <v>2</v>
       </c>
@@ -16476,7 +16488,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A138" s="198">
         <v>2</v>
       </c>
@@ -16564,7 +16576,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="139" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A139" s="198">
         <v>2</v>
       </c>
@@ -16644,7 +16656,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="140" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A140" s="198">
         <v>2</v>
       </c>
@@ -16720,7 +16732,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="141" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A141" s="198">
         <v>2</v>
       </c>
@@ -16800,7 +16812,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="142" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A142" s="198">
         <v>2</v>
       </c>
@@ -16876,7 +16888,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="143" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A143" s="198">
         <v>2</v>
       </c>
@@ -16956,7 +16968,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="144" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A144" s="198">
         <v>2</v>
       </c>
@@ -17032,7 +17044,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="145" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A145" s="198">
         <v>2</v>
       </c>
@@ -17114,7 +17126,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="146" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A146" s="198">
         <v>2</v>
       </c>
@@ -17190,7 +17202,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="147" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A147" s="198">
         <v>2</v>
       </c>
@@ -17272,7 +17284,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="148" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A148" s="198">
         <v>2</v>
       </c>
@@ -17352,7 +17364,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="149" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A149" s="198">
         <v>2</v>
       </c>
@@ -17440,7 +17452,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="150" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A150" s="198">
         <v>2</v>
       </c>
@@ -17520,7 +17532,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="151" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A151" s="198">
         <v>2</v>
       </c>
@@ -17596,7 +17608,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A152" s="198">
         <v>2</v>
       </c>
@@ -17676,7 +17688,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="153" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A153" s="198">
         <v>2</v>
       </c>
@@ -17750,7 +17762,7 @@
       <c r="AL153" s="105"/>
       <c r="AM153" s="102"/>
     </row>
-    <row r="154" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A154" s="198">
         <v>2</v>
       </c>
@@ -17830,7 +17842,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="155" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A155" s="198">
         <v>2</v>
       </c>
@@ -17902,7 +17914,7 @@
       <c r="AL155" s="105"/>
       <c r="AM155" s="102"/>
     </row>
-    <row r="156" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A156" s="198">
         <v>2</v>
       </c>
@@ -17972,7 +17984,7 @@
       <c r="AL156" s="105"/>
       <c r="AM156" s="102"/>
     </row>
-    <row r="157" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A157" s="198">
         <v>2</v>
       </c>
@@ -18032,7 +18044,7 @@
       <c r="AE157" s="103"/>
       <c r="AF157" s="103"/>
     </row>
-    <row r="158" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A158" s="198">
         <v>2</v>
       </c>
@@ -18128,7 +18140,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="159" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A159" s="198">
         <v>2</v>
       </c>
@@ -18208,7 +18220,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="160" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A160" s="198">
         <v>2</v>
       </c>
@@ -18288,7 +18300,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="161" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A161" s="198">
         <v>2</v>
       </c>
@@ -18368,7 +18380,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="162" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A162" s="198">
         <v>2</v>
       </c>
@@ -18448,7 +18460,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="163" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A163" s="198">
         <v>2</v>
       </c>
@@ -18528,7 +18540,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="164" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A164" s="198">
         <v>2</v>
       </c>
@@ -18608,7 +18620,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="165" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A165" s="198">
         <v>2</v>
       </c>
@@ -18678,7 +18690,7 @@
       <c r="AL165" s="105"/>
       <c r="AM165" s="102"/>
     </row>
-    <row r="166" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A166" s="198">
         <v>2</v>
       </c>
@@ -18748,7 +18760,7 @@
       <c r="AL166" s="105"/>
       <c r="AM166" s="102"/>
     </row>
-    <row r="167" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A167" s="198">
         <v>2</v>
       </c>
@@ -18818,7 +18830,7 @@
       <c r="AL167" s="105"/>
       <c r="AM167" s="102"/>
     </row>
-    <row r="168" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A168" s="198">
         <v>2</v>
       </c>
@@ -18888,7 +18900,7 @@
       <c r="AL168" s="105"/>
       <c r="AM168" s="102"/>
     </row>
-    <row r="169" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A169" s="198">
         <v>2</v>
       </c>
@@ -18958,7 +18970,7 @@
       <c r="AL169" s="105"/>
       <c r="AM169" s="102"/>
     </row>
-    <row r="170" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A170" s="198">
         <v>2</v>
       </c>
@@ -19028,7 +19040,7 @@
       <c r="AL170" s="105"/>
       <c r="AM170" s="102"/>
     </row>
-    <row r="171" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A171" s="198">
         <v>2</v>
       </c>
@@ -19098,7 +19110,7 @@
       <c r="AL171" s="105"/>
       <c r="AM171" s="102"/>
     </row>
-    <row r="172" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A172" s="198">
         <v>2</v>
       </c>
@@ -19168,7 +19180,7 @@
       <c r="AL172" s="105"/>
       <c r="AM172" s="102"/>
     </row>
-    <row r="173" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A173" s="198">
         <v>2</v>
       </c>
@@ -19238,7 +19250,7 @@
       <c r="AL173" s="105"/>
       <c r="AM173" s="102"/>
     </row>
-    <row r="174" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A174" s="198">
         <v>2</v>
       </c>
@@ -19308,7 +19320,7 @@
       <c r="AL174" s="105"/>
       <c r="AM174" s="102"/>
     </row>
-    <row r="175" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A175" s="198">
         <v>2</v>
       </c>
@@ -19388,7 +19400,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A176" s="198">
         <v>2</v>
       </c>
@@ -19468,7 +19480,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="177" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A177" s="198">
         <v>2</v>
       </c>
@@ -19548,7 +19560,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="178" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A178" s="198">
         <v>2</v>
       </c>
@@ -19628,7 +19640,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="179" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A179" s="198">
         <v>2</v>
       </c>
@@ -19708,7 +19720,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="180" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A180" s="198">
         <v>2</v>
       </c>
@@ -19788,7 +19800,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="181" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A181" s="198">
         <v>2</v>
       </c>
@@ -19864,7 +19876,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="182" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A182" s="198">
         <v>2</v>
       </c>
@@ -19944,7 +19956,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="183" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A183" s="198">
         <v>2</v>
       </c>
@@ -20020,7 +20032,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="184" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A184" s="198">
         <v>2</v>
       </c>
@@ -20100,7 +20112,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="185" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A185" s="198">
         <v>2</v>
       </c>
@@ -20180,7 +20192,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="186" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A186" s="198">
         <v>2</v>
       </c>
@@ -20260,7 +20272,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="187" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A187" s="198">
         <v>2</v>
       </c>
@@ -20340,7 +20352,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="188" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A188" s="198">
         <v>2</v>
       </c>
@@ -20416,7 +20428,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="189" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A189" s="198">
         <v>2</v>
       </c>
@@ -20496,7 +20508,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="190" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A190" s="198">
         <v>2</v>
       </c>
@@ -20572,7 +20584,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="191" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A191" s="198">
         <v>2</v>
       </c>
@@ -20654,7 +20666,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="192" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A192" s="198">
         <v>2</v>
       </c>
@@ -20726,7 +20738,7 @@
       <c r="AL192" s="105"/>
       <c r="AM192" s="102"/>
     </row>
-    <row r="193" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A193" s="198">
         <v>2</v>
       </c>
@@ -20802,7 +20814,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="194" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A194" s="198">
         <v>2</v>
       </c>
@@ -20882,7 +20894,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="195" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A195" s="198">
         <v>2</v>
       </c>
@@ -20960,7 +20972,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="196" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A196" s="198">
         <v>2</v>
       </c>
@@ -21040,7 +21052,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="197" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A197" s="198">
         <v>2</v>
       </c>
@@ -21116,7 +21128,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="198" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A198" s="198">
         <v>2</v>
       </c>
@@ -21196,7 +21208,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="199" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A199" s="198">
         <v>2</v>
       </c>
@@ -21274,7 +21286,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="200" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A200" s="198">
         <v>2</v>
       </c>
@@ -21354,7 +21366,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="201" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A201" s="198">
         <v>2</v>
       </c>
@@ -21436,7 +21448,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="202" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A202" s="198">
         <v>2</v>
       </c>
@@ -21520,7 +21532,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="203" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A203" s="198">
         <v>2</v>
       </c>
@@ -21600,7 +21612,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="204" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A204" s="198">
         <v>2</v>
       </c>
@@ -21680,7 +21692,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="205" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A205" s="198">
         <v>2</v>
       </c>
@@ -21760,7 +21772,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="206" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A206" s="198">
         <v>2</v>
       </c>
@@ -21858,7 +21870,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="207" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A207" s="198">
         <v>2</v>
       </c>
@@ -21926,7 +21938,7 @@
       <c r="AL207" s="105"/>
       <c r="AM207" s="102"/>
     </row>
-    <row r="208" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A208" s="198">
         <v>2</v>
       </c>
@@ -22018,7 +22030,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="209" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A209" s="198">
         <v>2</v>
       </c>
@@ -22088,7 +22100,7 @@
       <c r="AL209" s="105"/>
       <c r="AM209" s="102"/>
     </row>
-    <row r="210" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A210" s="198">
         <v>2</v>
       </c>
@@ -22164,7 +22176,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="211" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A211" s="198">
         <v>2</v>
       </c>
@@ -22240,7 +22252,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="212" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A212" s="198">
         <v>2</v>
       </c>
@@ -22324,7 +22336,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="213" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A213" s="198">
         <v>2</v>
       </c>
@@ -22394,7 +22406,7 @@
       <c r="AL213" s="105"/>
       <c r="AM213" s="102"/>
     </row>
-    <row r="214" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A214" s="198">
         <v>2</v>
       </c>
@@ -22466,7 +22478,7 @@
       <c r="AL214" s="105"/>
       <c r="AM214" s="102"/>
     </row>
-    <row r="215" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A215" s="198">
         <v>2</v>
       </c>
@@ -22536,7 +22548,7 @@
       <c r="AL215" s="105"/>
       <c r="AM215" s="102"/>
     </row>
-    <row r="216" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A216" s="198">
         <v>2</v>
       </c>
@@ -22622,7 +22634,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="217" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A217" s="198">
         <v>2</v>
       </c>
@@ -22698,7 +22710,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A218" s="198">
         <v>2</v>
       </c>
@@ -22776,7 +22788,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="219" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A219" s="198">
         <v>2</v>
       </c>
@@ -22860,7 +22872,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="220" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A220" s="198">
         <v>2</v>
       </c>
@@ -22933,7 +22945,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="221" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A221" s="198">
         <v>2</v>
       </c>
@@ -23017,7 +23029,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="222" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A222" s="198">
         <v>2</v>
       </c>
@@ -23093,7 +23105,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="223" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A223" s="198">
         <v>2</v>
       </c>
@@ -23177,7 +23189,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="224" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A224" s="198">
         <v>2</v>
       </c>
@@ -23263,7 +23275,7 @@
       <c r="AL224" s="144"/>
       <c r="AM224" s="143"/>
     </row>
-    <row r="225" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A225" s="198">
         <v>2</v>
       </c>
@@ -23349,7 +23361,7 @@
       <c r="AL225" s="135"/>
       <c r="AM225" s="134"/>
     </row>
-    <row r="226" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A226" s="198">
         <v>2</v>
       </c>
@@ -23435,7 +23447,7 @@
       <c r="AL226" s="135"/>
       <c r="AM226" s="134"/>
     </row>
-    <row r="227" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A227" s="198">
         <v>2</v>
       </c>
@@ -23523,7 +23535,7 @@
       <c r="AL227" s="135"/>
       <c r="AM227" s="134"/>
     </row>
-    <row r="228" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A228" s="198">
         <v>2</v>
       </c>
@@ -23609,7 +23621,7 @@
       <c r="AL228" s="135"/>
       <c r="AM228" s="134"/>
     </row>
-    <row r="229" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A229" s="198">
         <v>2</v>
       </c>
@@ -23679,7 +23691,7 @@
       <c r="AL229" s="135"/>
       <c r="AM229" s="134"/>
     </row>
-    <row r="230" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A230" s="198">
         <v>2</v>
       </c>
@@ -23749,7 +23761,7 @@
       <c r="AL230" s="135"/>
       <c r="AM230" s="134"/>
     </row>
-    <row r="231" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A231" s="198">
         <v>2</v>
       </c>
@@ -23819,7 +23831,7 @@
       <c r="AL231" s="135"/>
       <c r="AM231" s="134"/>
     </row>
-    <row r="232" spans="1:39" s="104" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:39" s="104" customFormat="1" ht="50" customHeight="1">
       <c r="A232" s="120">
         <v>2</v>
       </c>
@@ -23889,7 +23901,7 @@
       <c r="AL232" s="135"/>
       <c r="AM232" s="134"/>
     </row>
-    <row r="233" spans="1:39" s="323" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:39" s="323" customFormat="1" ht="50" customHeight="1">
       <c r="A233" s="120">
         <v>3</v>
       </c>
@@ -23975,7 +23987,7 @@
       <c r="AL233" s="8"/>
       <c r="AM233" s="8"/>
     </row>
-    <row r="234" spans="1:39" s="323" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:39" s="323" customFormat="1" ht="50" customHeight="1">
       <c r="A234" s="120">
         <v>3</v>
       </c>
@@ -24045,7 +24057,7 @@
       <c r="AL234" s="8"/>
       <c r="AM234" s="8"/>
     </row>
-    <row r="235" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:39" ht="50" customHeight="1">
       <c r="A235" s="107">
         <v>3</v>
       </c>
@@ -24106,7 +24118,7 @@
       <c r="AE235" s="89"/>
       <c r="AF235" s="89"/>
     </row>
-    <row r="236" spans="1:39" s="323" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:39" s="323" customFormat="1" ht="50" customHeight="1">
       <c r="A236" s="120">
         <v>3</v>
       </c>
@@ -24176,7 +24188,7 @@
       <c r="AL236" s="8"/>
       <c r="AM236" s="8"/>
     </row>
-    <row r="237" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:39" ht="50" customHeight="1">
       <c r="A237" s="107">
         <v>3</v>
       </c>
@@ -24237,7 +24249,7 @@
       <c r="AE237" s="103"/>
       <c r="AF237" s="103"/>
     </row>
-    <row r="238" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:39" ht="50" customHeight="1">
       <c r="A238" s="107">
         <v>3</v>
       </c>
@@ -24298,7 +24310,7 @@
       <c r="AE238" s="103"/>
       <c r="AF238" s="103"/>
     </row>
-    <row r="239" spans="1:39" s="323" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:39" s="323" customFormat="1" ht="50" customHeight="1">
       <c r="A239" s="120">
         <v>3</v>
       </c>
@@ -24366,7 +24378,7 @@
       <c r="AL239" s="8"/>
       <c r="AM239" s="8"/>
     </row>
-    <row r="240" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:39" ht="50" customHeight="1">
       <c r="A240" s="107">
         <v>3</v>
       </c>
@@ -24427,7 +24439,7 @@
       <c r="AE240" s="103"/>
       <c r="AF240" s="103"/>
     </row>
-    <row r="241" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:39" ht="50" customHeight="1">
       <c r="A241" s="107">
         <v>3</v>
       </c>
@@ -24488,7 +24500,7 @@
       <c r="AE241" s="89"/>
       <c r="AF241" s="89"/>
     </row>
-    <row r="242" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:39" ht="50" customHeight="1">
       <c r="A242" s="107">
         <v>3</v>
       </c>
@@ -24551,7 +24563,7 @@
       <c r="AE242" s="89"/>
       <c r="AF242" s="89"/>
     </row>
-    <row r="243" spans="1:39" s="323" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:39" s="323" customFormat="1" ht="50" customHeight="1">
       <c r="A243" s="120">
         <v>3</v>
       </c>
@@ -24623,7 +24635,7 @@
       <c r="AL243" s="8"/>
       <c r="AM243" s="8"/>
     </row>
-    <row r="244" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:39" ht="50" customHeight="1">
       <c r="A244" s="107">
         <v>3</v>
       </c>
@@ -24684,7 +24696,7 @@
       <c r="AE244" s="89"/>
       <c r="AF244" s="89"/>
     </row>
-    <row r="245" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:39" ht="50" customHeight="1">
       <c r="A245" s="107">
         <v>3</v>
       </c>
@@ -24745,7 +24757,7 @@
       <c r="AE245" s="154"/>
       <c r="AF245" s="154"/>
     </row>
-    <row r="246" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:39" ht="50" customHeight="1">
       <c r="A246" s="107">
         <v>3</v>
       </c>
@@ -24806,7 +24818,7 @@
       <c r="AE246" s="154"/>
       <c r="AF246" s="154"/>
     </row>
-    <row r="247" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:39" ht="50" customHeight="1">
       <c r="A247" s="107">
         <v>3</v>
       </c>
@@ -24867,7 +24879,7 @@
       <c r="AE247" s="156"/>
       <c r="AF247" s="156"/>
     </row>
-    <row r="248" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:39" ht="50" customHeight="1">
       <c r="A248" s="107">
         <v>3</v>
       </c>
@@ -24928,7 +24940,7 @@
       <c r="AE248" s="156"/>
       <c r="AF248" s="156"/>
     </row>
-    <row r="249" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:39" ht="50" customHeight="1">
       <c r="A249" s="107">
         <v>3</v>
       </c>
@@ -24989,7 +25001,7 @@
       <c r="AE249" s="156"/>
       <c r="AF249" s="156"/>
     </row>
-    <row r="250" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:39" ht="50" customHeight="1">
       <c r="A250" s="107">
         <v>3</v>
       </c>
@@ -25052,7 +25064,7 @@
       <c r="AE250" s="89"/>
       <c r="AF250" s="89"/>
     </row>
-    <row r="251" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:39" ht="50" customHeight="1">
       <c r="A251" s="107">
         <v>3</v>
       </c>
@@ -25113,7 +25125,7 @@
       <c r="AE251" s="89"/>
       <c r="AF251" s="89"/>
     </row>
-    <row r="252" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:39" ht="50" customHeight="1">
       <c r="A252" s="107">
         <v>3</v>
       </c>
@@ -25178,7 +25190,7 @@
       <c r="AE252" s="103"/>
       <c r="AF252" s="103"/>
     </row>
-    <row r="253" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:39" ht="50" customHeight="1">
       <c r="A253" s="107">
         <v>3</v>
       </c>
@@ -25239,7 +25251,7 @@
       <c r="AE253" s="89"/>
       <c r="AF253" s="89"/>
     </row>
-    <row r="254" spans="1:39" s="323" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:39" s="323" customFormat="1" ht="50" customHeight="1">
       <c r="A254" s="120">
         <v>3</v>
       </c>
@@ -25311,7 +25323,7 @@
       <c r="AL254" s="8"/>
       <c r="AM254" s="8"/>
     </row>
-    <row r="255" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:39" ht="50" customHeight="1">
       <c r="A255" s="107">
         <v>3</v>
       </c>
@@ -25372,7 +25384,7 @@
       <c r="AE255" s="89"/>
       <c r="AF255" s="89"/>
     </row>
-    <row r="256" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:39" ht="50" customHeight="1">
       <c r="A256" s="107">
         <v>3</v>
       </c>
@@ -25433,7 +25445,7 @@
       <c r="AE256" s="156"/>
       <c r="AF256" s="156"/>
     </row>
-    <row r="257" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:39" ht="50" customHeight="1">
       <c r="A257" s="107">
         <v>3</v>
       </c>
@@ -25494,7 +25506,7 @@
       <c r="AE257" s="156"/>
       <c r="AF257" s="156"/>
     </row>
-    <row r="258" spans="1:39" s="323" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:39" s="323" customFormat="1" ht="50" customHeight="1">
       <c r="A258" s="120">
         <v>3</v>
       </c>
@@ -25566,7 +25578,7 @@
       <c r="AL258" s="8"/>
       <c r="AM258" s="8"/>
     </row>
-    <row r="259" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:39" ht="50" customHeight="1">
       <c r="A259" s="107">
         <v>3</v>
       </c>
@@ -25627,7 +25639,7 @@
       <c r="AE259" s="89"/>
       <c r="AF259" s="89"/>
     </row>
-    <row r="260" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:39" ht="50" customHeight="1">
       <c r="A260" s="107">
         <v>3</v>
       </c>
@@ -25690,7 +25702,7 @@
       <c r="AE260" s="103"/>
       <c r="AF260" s="103"/>
     </row>
-    <row r="261" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:39" ht="50" customHeight="1">
       <c r="A261" s="107">
         <v>3</v>
       </c>
@@ -25751,7 +25763,7 @@
       <c r="AE261" s="89"/>
       <c r="AF261" s="89"/>
     </row>
-    <row r="262" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:39" ht="50" customHeight="1">
       <c r="A262" s="107">
         <v>3</v>
       </c>
@@ -25808,7 +25820,7 @@
       <c r="AE262" s="89"/>
       <c r="AF262" s="89"/>
     </row>
-    <row r="263" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:39" ht="50" customHeight="1">
       <c r="A263" s="107">
         <v>3</v>
       </c>
@@ -25886,7 +25898,7 @@
       <c r="AE263" s="89"/>
       <c r="AF263" s="89"/>
     </row>
-    <row r="264" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:39" ht="50" customHeight="1">
       <c r="A264" s="107">
         <v>3</v>
       </c>
@@ -25947,7 +25959,7 @@
       <c r="AE264" s="89"/>
       <c r="AF264" s="89"/>
     </row>
-    <row r="265" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:39" ht="50" customHeight="1">
       <c r="A265" s="107">
         <v>3</v>
       </c>
@@ -26008,7 +26020,7 @@
       <c r="AE265" s="89"/>
       <c r="AF265" s="89"/>
     </row>
-    <row r="266" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:39" ht="50" customHeight="1">
       <c r="A266" s="107">
         <v>3</v>
       </c>
@@ -26069,7 +26081,7 @@
       <c r="AE266" s="89"/>
       <c r="AF266" s="89"/>
     </row>
-    <row r="267" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:39" ht="50" customHeight="1">
       <c r="A267" s="107">
         <v>3</v>
       </c>
@@ -26130,7 +26142,7 @@
       <c r="AE267" s="89"/>
       <c r="AF267" s="89"/>
     </row>
-    <row r="268" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:39" ht="50" customHeight="1">
       <c r="A268" s="107">
         <v>3</v>
       </c>
@@ -26191,7 +26203,7 @@
       <c r="AE268" s="89"/>
       <c r="AF268" s="89"/>
     </row>
-    <row r="269" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:39" ht="50" customHeight="1">
       <c r="A269" s="107">
         <v>3</v>
       </c>
@@ -26252,7 +26264,7 @@
       <c r="AE269" s="89"/>
       <c r="AF269" s="89"/>
     </row>
-    <row r="270" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:39" ht="50" customHeight="1">
       <c r="A270" s="107">
         <v>3</v>
       </c>
@@ -26313,7 +26325,7 @@
       <c r="AE270" s="89"/>
       <c r="AF270" s="89"/>
     </row>
-    <row r="271" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:39" ht="50" customHeight="1">
       <c r="A271" s="107">
         <v>3</v>
       </c>
@@ -26374,7 +26386,7 @@
       <c r="AE271" s="89"/>
       <c r="AF271" s="89"/>
     </row>
-    <row r="272" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:39" ht="50" customHeight="1">
       <c r="A272" s="107">
         <v>3</v>
       </c>
@@ -26435,7 +26447,7 @@
       <c r="AE272" s="89"/>
       <c r="AF272" s="89"/>
     </row>
-    <row r="273" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:39" ht="50" customHeight="1">
       <c r="A273" s="107">
         <v>3</v>
       </c>
@@ -26496,7 +26508,7 @@
       <c r="AE273" s="89"/>
       <c r="AF273" s="89"/>
     </row>
-    <row r="274" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:39" ht="50" customHeight="1">
       <c r="A274" s="107">
         <v>3</v>
       </c>
@@ -26557,7 +26569,7 @@
       <c r="AE274" s="89"/>
       <c r="AF274" s="89"/>
     </row>
-    <row r="275" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:39" ht="50" customHeight="1">
       <c r="A275" s="107">
         <v>3</v>
       </c>
@@ -26618,7 +26630,7 @@
       <c r="AE275" s="89"/>
       <c r="AF275" s="89"/>
     </row>
-    <row r="276" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:39" ht="50" customHeight="1">
       <c r="A276" s="107">
         <v>3</v>
       </c>
@@ -26679,7 +26691,7 @@
       <c r="AE276" s="89"/>
       <c r="AF276" s="89"/>
     </row>
-    <row r="277" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:39" ht="50" customHeight="1">
       <c r="A277" s="107">
         <v>3</v>
       </c>
@@ -26740,7 +26752,7 @@
       <c r="AE277" s="89"/>
       <c r="AF277" s="89"/>
     </row>
-    <row r="278" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:39" ht="50" customHeight="1">
       <c r="A278" s="107">
         <v>3</v>
       </c>
@@ -26801,7 +26813,7 @@
       <c r="AE278" s="89"/>
       <c r="AF278" s="89"/>
     </row>
-    <row r="279" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:39" ht="50" customHeight="1">
       <c r="A279" s="107">
         <v>3</v>
       </c>
@@ -26862,7 +26874,7 @@
       <c r="AE279" s="89"/>
       <c r="AF279" s="89"/>
     </row>
-    <row r="280" spans="1:39" s="323" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:39" s="323" customFormat="1" ht="50" customHeight="1">
       <c r="A280" s="120">
         <v>3</v>
       </c>
@@ -26934,7 +26946,7 @@
       <c r="AL280" s="8"/>
       <c r="AM280" s="8"/>
     </row>
-    <row r="281" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:39" ht="50" customHeight="1">
       <c r="A281" s="107">
         <v>3</v>
       </c>
@@ -26995,7 +27007,7 @@
       <c r="AE281" s="89"/>
       <c r="AF281" s="89"/>
     </row>
-    <row r="282" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:39" ht="50" customHeight="1">
       <c r="A282" s="107">
         <v>3</v>
       </c>
@@ -27056,7 +27068,7 @@
       <c r="AE282" s="89"/>
       <c r="AF282" s="89"/>
     </row>
-    <row r="283" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:39" ht="50" customHeight="1">
       <c r="A283" s="107">
         <v>3</v>
       </c>
@@ -27117,7 +27129,7 @@
       <c r="AE283" s="89"/>
       <c r="AF283" s="89"/>
     </row>
-    <row r="284" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:39" ht="50" customHeight="1">
       <c r="A284" s="107">
         <v>3</v>
       </c>
@@ -27178,7 +27190,7 @@
       <c r="AE284" s="89"/>
       <c r="AF284" s="89"/>
     </row>
-    <row r="285" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:39" ht="50" customHeight="1">
       <c r="A285" s="107">
         <v>3</v>
       </c>
@@ -27239,7 +27251,7 @@
       <c r="AE285" s="89"/>
       <c r="AF285" s="89"/>
     </row>
-    <row r="286" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:39" ht="50" customHeight="1">
       <c r="A286" s="107">
         <v>3</v>
       </c>
@@ -27300,7 +27312,7 @@
       <c r="AE286" s="89"/>
       <c r="AF286" s="89"/>
     </row>
-    <row r="287" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:39" ht="50" customHeight="1">
       <c r="A287" s="107">
         <v>3</v>
       </c>
@@ -27361,7 +27373,7 @@
       <c r="AE287" s="89"/>
       <c r="AF287" s="89"/>
     </row>
-    <row r="288" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:39" ht="50" customHeight="1">
       <c r="A288" s="107">
         <v>3</v>
       </c>
@@ -27422,7 +27434,7 @@
       <c r="AE288" s="89"/>
       <c r="AF288" s="89"/>
     </row>
-    <row r="289" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:32" ht="50" customHeight="1">
       <c r="A289" s="107">
         <v>3</v>
       </c>
@@ -27483,7 +27495,7 @@
       <c r="AE289" s="89"/>
       <c r="AF289" s="89"/>
     </row>
-    <row r="290" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:32" ht="50" customHeight="1">
       <c r="A290" s="107">
         <v>3</v>
       </c>
@@ -27544,7 +27556,7 @@
       <c r="AE290" s="89"/>
       <c r="AF290" s="89"/>
     </row>
-    <row r="291" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:32" ht="50" customHeight="1">
       <c r="A291" s="107">
         <v>3</v>
       </c>
@@ -27605,7 +27617,7 @@
       <c r="AE291" s="89"/>
       <c r="AF291" s="89"/>
     </row>
-    <row r="292" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:32" ht="50" customHeight="1">
       <c r="A292" s="107">
         <v>3</v>
       </c>
@@ -27666,7 +27678,7 @@
       <c r="AE292" s="89"/>
       <c r="AF292" s="89"/>
     </row>
-    <row r="293" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:32" ht="50" customHeight="1">
       <c r="A293" s="107">
         <v>3</v>
       </c>
@@ -27727,7 +27739,7 @@
       <c r="AE293" s="89"/>
       <c r="AF293" s="89"/>
     </row>
-    <row r="294" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:32" ht="50" customHeight="1">
       <c r="A294" s="107">
         <v>3</v>
       </c>
@@ -27788,7 +27800,7 @@
       <c r="AE294" s="89"/>
       <c r="AF294" s="89"/>
     </row>
-    <row r="295" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:32" ht="50" customHeight="1">
       <c r="A295" s="107">
         <v>3</v>
       </c>
@@ -27849,7 +27861,7 @@
       <c r="AE295" s="89"/>
       <c r="AF295" s="89"/>
     </row>
-    <row r="296" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:32" ht="50" customHeight="1">
       <c r="A296" s="107">
         <v>3</v>
       </c>
@@ -27912,7 +27924,7 @@
       <c r="AE296" s="89"/>
       <c r="AF296" s="89"/>
     </row>
-    <row r="297" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:32" ht="50" customHeight="1">
       <c r="A297" s="107">
         <v>3</v>
       </c>
@@ -27975,7 +27987,7 @@
       <c r="AE297" s="89"/>
       <c r="AF297" s="89"/>
     </row>
-    <row r="298" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:32" ht="50" customHeight="1">
       <c r="A298" s="107">
         <v>3</v>
       </c>
@@ -28036,7 +28048,7 @@
       <c r="AE298" s="89"/>
       <c r="AF298" s="89"/>
     </row>
-    <row r="299" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:32" ht="50" customHeight="1">
       <c r="A299" s="107">
         <v>3</v>
       </c>
@@ -28097,7 +28109,7 @@
       <c r="AE299" s="89"/>
       <c r="AF299" s="89"/>
     </row>
-    <row r="300" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:32" ht="50" customHeight="1">
       <c r="A300" s="107">
         <v>3</v>
       </c>
@@ -28160,7 +28172,7 @@
       <c r="AE300" s="89"/>
       <c r="AF300" s="89"/>
     </row>
-    <row r="301" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:32" ht="50" customHeight="1">
       <c r="A301" s="107">
         <v>3</v>
       </c>
@@ -28221,7 +28233,7 @@
       <c r="AE301" s="89"/>
       <c r="AF301" s="89"/>
     </row>
-    <row r="302" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:32" ht="50" customHeight="1">
       <c r="A302" s="107">
         <v>3</v>
       </c>
@@ -28282,7 +28294,7 @@
       <c r="AE302" s="89"/>
       <c r="AF302" s="89"/>
     </row>
-    <row r="303" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:32" ht="50" customHeight="1">
       <c r="A303" s="107">
         <v>3</v>
       </c>
@@ -28343,7 +28355,7 @@
       <c r="AE303" s="89"/>
       <c r="AF303" s="89"/>
     </row>
-    <row r="304" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:32" ht="50" customHeight="1">
       <c r="A304" s="107">
         <v>3</v>
       </c>
@@ -28402,7 +28414,7 @@
       <c r="AE304" s="89"/>
       <c r="AF304" s="89"/>
     </row>
-    <row r="305" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:32" ht="50" customHeight="1">
       <c r="A305" s="107">
         <v>3</v>
       </c>
@@ -28463,7 +28475,7 @@
       <c r="AE305" s="89"/>
       <c r="AF305" s="89"/>
     </row>
-    <row r="306" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:32" ht="50" customHeight="1">
       <c r="A306" s="107">
         <v>3</v>
       </c>
@@ -28526,7 +28538,7 @@
       <c r="AE306" s="89"/>
       <c r="AF306" s="89"/>
     </row>
-    <row r="307" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:32" ht="50" customHeight="1">
       <c r="A307" s="107">
         <v>3</v>
       </c>
@@ -28587,7 +28599,7 @@
       <c r="AE307" s="89"/>
       <c r="AF307" s="89"/>
     </row>
-    <row r="308" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:32" ht="50" customHeight="1">
       <c r="A308" s="107">
         <v>3</v>
       </c>
@@ -28648,7 +28660,7 @@
       <c r="AE308" s="89"/>
       <c r="AF308" s="89"/>
     </row>
-    <row r="309" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:32" ht="50" customHeight="1">
       <c r="A309" s="107">
         <v>3</v>
       </c>
@@ -28709,7 +28721,7 @@
       <c r="AE309" s="89"/>
       <c r="AF309" s="89"/>
     </row>
-    <row r="310" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:32" ht="50" customHeight="1">
       <c r="A310" s="107">
         <v>3</v>
       </c>
@@ -28773,7 +28785,7 @@
       <c r="AE310" s="89"/>
       <c r="AF310" s="89"/>
     </row>
-    <row r="311" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:32" ht="50" customHeight="1">
       <c r="A311" s="107">
         <v>3</v>
       </c>
@@ -28851,7 +28863,7 @@
       <c r="AE311" s="156"/>
       <c r="AF311" s="156"/>
     </row>
-    <row r="312" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:32" ht="50" customHeight="1">
       <c r="A312" s="107">
         <v>3</v>
       </c>
@@ -28913,7 +28925,7 @@
       <c r="AE312" s="156"/>
       <c r="AF312" s="156"/>
     </row>
-    <row r="313" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:32" ht="50" customHeight="1">
       <c r="A313" s="107">
         <v>3</v>
       </c>
@@ -28975,7 +28987,7 @@
       <c r="AE313" s="103"/>
       <c r="AF313" s="103"/>
     </row>
-    <row r="314" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:32" ht="50" customHeight="1">
       <c r="A314" s="107">
         <v>3</v>
       </c>
@@ -29037,7 +29049,7 @@
       <c r="AE314" s="103"/>
       <c r="AF314" s="103"/>
     </row>
-    <row r="315" spans="1:32" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:32" ht="49.75" customHeight="1">
       <c r="A315" s="107">
         <v>3</v>
       </c>
@@ -29103,7 +29115,7 @@
       <c r="AE315" s="103"/>
       <c r="AF315" s="103"/>
     </row>
-    <row r="316" spans="1:32" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:32" ht="49.75" customHeight="1">
       <c r="A316" s="107">
         <v>3</v>
       </c>
@@ -29183,7 +29195,7 @@
       <c r="AE316" s="156"/>
       <c r="AF316" s="156"/>
     </row>
-    <row r="317" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:32" ht="50" customHeight="1">
       <c r="A317" s="198">
         <v>4</v>
       </c>
@@ -29263,7 +29275,7 @@
       <c r="AE317" s="103"/>
       <c r="AF317" s="103"/>
     </row>
-    <row r="318" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:32" ht="50" customHeight="1">
       <c r="A318" s="198">
         <v>4</v>
       </c>
@@ -29328,7 +29340,7 @@
       <c r="AE318" s="103"/>
       <c r="AF318" s="103"/>
     </row>
-    <row r="319" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:32" ht="50" customHeight="1">
       <c r="A319" s="198">
         <v>4</v>
       </c>
@@ -29391,7 +29403,7 @@
       <c r="AE319" s="103"/>
       <c r="AF319" s="103"/>
     </row>
-    <row r="320" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:32" ht="50" customHeight="1">
       <c r="A320" s="198">
         <v>4</v>
       </c>
@@ -29458,7 +29470,7 @@
       <c r="AE320" s="103"/>
       <c r="AF320" s="103"/>
     </row>
-    <row r="321" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:32" ht="50" customHeight="1">
       <c r="A321" s="198">
         <v>4</v>
       </c>
@@ -29521,7 +29533,7 @@
       <c r="AE321" s="103"/>
       <c r="AF321" s="103"/>
     </row>
-    <row r="322" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:32" ht="50" customHeight="1">
       <c r="A322" s="198">
         <v>4</v>
       </c>
@@ -29584,7 +29596,7 @@
       <c r="AE322" s="103"/>
       <c r="AF322" s="103"/>
     </row>
-    <row r="323" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:32" ht="50" customHeight="1">
       <c r="A323" s="198">
         <v>4</v>
       </c>
@@ -29647,7 +29659,7 @@
       <c r="AE323" s="103"/>
       <c r="AF323" s="103"/>
     </row>
-    <row r="324" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:32" ht="50" customHeight="1">
       <c r="A324" s="198">
         <v>4</v>
       </c>
@@ -29710,7 +29722,7 @@
       <c r="AE324" s="103"/>
       <c r="AF324" s="103"/>
     </row>
-    <row r="325" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:32" ht="50" customHeight="1">
       <c r="A325" s="198">
         <v>4</v>
       </c>
@@ -29773,7 +29785,7 @@
       <c r="AE325" s="103"/>
       <c r="AF325" s="103"/>
     </row>
-    <row r="326" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:32" ht="50" customHeight="1">
       <c r="A326" s="198">
         <v>4</v>
       </c>
@@ -29838,7 +29850,7 @@
       <c r="AE326" s="103"/>
       <c r="AF326" s="103"/>
     </row>
-    <row r="327" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:32" ht="50" customHeight="1">
       <c r="A327" s="198">
         <v>4</v>
       </c>
@@ -29907,7 +29919,7 @@
       <c r="AE327" s="103"/>
       <c r="AF327" s="103"/>
     </row>
-    <row r="328" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:32" ht="50" customHeight="1">
       <c r="A328" s="198">
         <v>4</v>
       </c>
@@ -29970,7 +29982,7 @@
       <c r="AE328" s="103"/>
       <c r="AF328" s="103"/>
     </row>
-    <row r="329" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:32" ht="50" customHeight="1">
       <c r="A329" s="198">
         <v>4</v>
       </c>
@@ -30033,7 +30045,7 @@
       <c r="AE329" s="156"/>
       <c r="AF329" s="156"/>
     </row>
-    <row r="330" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:32" ht="50" customHeight="1">
       <c r="A330" s="198">
         <v>4</v>
       </c>
@@ -30096,7 +30108,7 @@
       <c r="AE330" s="156"/>
       <c r="AF330" s="156"/>
     </row>
-    <row r="331" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:32" ht="50" customHeight="1">
       <c r="A331" s="198">
         <v>4</v>
       </c>
@@ -30159,7 +30171,7 @@
       <c r="AE331" s="156"/>
       <c r="AF331" s="156"/>
     </row>
-    <row r="332" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:32" ht="50" customHeight="1">
       <c r="A332" s="198">
         <v>4</v>
       </c>
@@ -30222,7 +30234,7 @@
       <c r="AE332" s="156"/>
       <c r="AF332" s="156"/>
     </row>
-    <row r="333" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:32" ht="50" customHeight="1">
       <c r="A333" s="198">
         <v>4</v>
       </c>
@@ -30285,7 +30297,7 @@
       <c r="AE333" s="156"/>
       <c r="AF333" s="156"/>
     </row>
-    <row r="334" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:32" ht="50" customHeight="1">
       <c r="A334" s="198">
         <v>4</v>
       </c>
@@ -30350,7 +30362,7 @@
       <c r="AE334" s="103"/>
       <c r="AF334" s="103"/>
     </row>
-    <row r="335" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:32" ht="50" customHeight="1">
       <c r="A335" s="198">
         <v>4</v>
       </c>
@@ -30413,7 +30425,7 @@
       <c r="AE335" s="103"/>
       <c r="AF335" s="103"/>
     </row>
-    <row r="336" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:32" ht="50" customHeight="1">
       <c r="A336" s="198">
         <v>4</v>
       </c>
@@ -30480,7 +30492,7 @@
       <c r="AE336" s="103"/>
       <c r="AF336" s="103"/>
     </row>
-    <row r="337" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:32" ht="50" customHeight="1">
       <c r="A337" s="198">
         <v>4</v>
       </c>
@@ -30543,7 +30555,7 @@
       <c r="AE337" s="103"/>
       <c r="AF337" s="103"/>
     </row>
-    <row r="338" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:32" ht="50" customHeight="1">
       <c r="A338" s="198">
         <v>4</v>
       </c>
@@ -30610,7 +30622,7 @@
       <c r="AE338" s="103"/>
       <c r="AF338" s="103"/>
     </row>
-    <row r="339" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:32" ht="50" customHeight="1">
       <c r="A339" s="198">
         <v>4</v>
       </c>
@@ -30673,7 +30685,7 @@
       <c r="AE339" s="103"/>
       <c r="AF339" s="103"/>
     </row>
-    <row r="340" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:32" ht="50" customHeight="1">
       <c r="A340" s="198">
         <v>4</v>
       </c>
@@ -30736,7 +30748,7 @@
       <c r="AE340" s="156"/>
       <c r="AF340" s="156"/>
     </row>
-    <row r="341" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:32" ht="50" customHeight="1">
       <c r="A341" s="198">
         <v>4</v>
       </c>
@@ -30799,7 +30811,7 @@
       <c r="AE341" s="156"/>
       <c r="AF341" s="156"/>
     </row>
-    <row r="342" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:32" ht="50" customHeight="1">
       <c r="A342" s="198">
         <v>4</v>
       </c>
@@ -30868,7 +30880,7 @@
       <c r="AE342" s="103"/>
       <c r="AF342" s="103"/>
     </row>
-    <row r="343" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:32" ht="50" customHeight="1">
       <c r="A343" s="198">
         <v>4</v>
       </c>
@@ -30931,7 +30943,7 @@
       <c r="AE343" s="103"/>
       <c r="AF343" s="103"/>
     </row>
-    <row r="344" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:32" ht="50" customHeight="1">
       <c r="A344" s="198">
         <v>4</v>
       </c>
@@ -30996,7 +31008,7 @@
       <c r="AE344" s="103"/>
       <c r="AF344" s="103"/>
     </row>
-    <row r="345" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:32" ht="50" customHeight="1">
       <c r="A345" s="198">
         <v>4</v>
       </c>
@@ -31059,7 +31071,7 @@
       <c r="AE345" s="103"/>
       <c r="AF345" s="103"/>
     </row>
-    <row r="346" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:32" ht="50" customHeight="1">
       <c r="A346" s="198">
         <v>4</v>
       </c>
@@ -31118,7 +31130,7 @@
       <c r="AE346" s="103"/>
       <c r="AF346" s="103"/>
     </row>
-    <row r="347" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:32" ht="50" customHeight="1">
       <c r="A347" s="198">
         <v>4</v>
       </c>
@@ -31196,7 +31208,7 @@
       <c r="AE347" s="103"/>
       <c r="AF347" s="103"/>
     </row>
-    <row r="348" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:32" ht="50" customHeight="1">
       <c r="A348" s="198">
         <v>4</v>
       </c>
@@ -31259,7 +31271,7 @@
       <c r="AE348" s="103"/>
       <c r="AF348" s="103"/>
     </row>
-    <row r="349" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:32" ht="50" customHeight="1">
       <c r="A349" s="198">
         <v>4</v>
       </c>
@@ -31322,7 +31334,7 @@
       <c r="AE349" s="103"/>
       <c r="AF349" s="103"/>
     </row>
-    <row r="350" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:32" ht="50" customHeight="1">
       <c r="A350" s="198">
         <v>4</v>
       </c>
@@ -31385,7 +31397,7 @@
       <c r="AE350" s="103"/>
       <c r="AF350" s="103"/>
     </row>
-    <row r="351" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:32" ht="50" customHeight="1">
       <c r="A351" s="198">
         <v>4</v>
       </c>
@@ -31448,7 +31460,7 @@
       <c r="AE351" s="103"/>
       <c r="AF351" s="103"/>
     </row>
-    <row r="352" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:32" ht="50" customHeight="1">
       <c r="A352" s="198">
         <v>4</v>
       </c>
@@ -31511,7 +31523,7 @@
       <c r="AE352" s="103"/>
       <c r="AF352" s="103"/>
     </row>
-    <row r="353" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:32" ht="50" customHeight="1">
       <c r="A353" s="198">
         <v>4</v>
       </c>
@@ -31574,7 +31586,7 @@
       <c r="AE353" s="103"/>
       <c r="AF353" s="103"/>
     </row>
-    <row r="354" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:32" ht="50" customHeight="1">
       <c r="A354" s="198">
         <v>4</v>
       </c>
@@ -31637,7 +31649,7 @@
       <c r="AE354" s="103"/>
       <c r="AF354" s="103"/>
     </row>
-    <row r="355" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:32" ht="50" customHeight="1">
       <c r="A355" s="198">
         <v>4</v>
       </c>
@@ -31700,7 +31712,7 @@
       <c r="AE355" s="103"/>
       <c r="AF355" s="103"/>
     </row>
-    <row r="356" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:32" ht="50" customHeight="1">
       <c r="A356" s="198">
         <v>4</v>
       </c>
@@ -31763,7 +31775,7 @@
       <c r="AE356" s="103"/>
       <c r="AF356" s="103"/>
     </row>
-    <row r="357" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:32" ht="50" customHeight="1">
       <c r="A357" s="198">
         <v>4</v>
       </c>
@@ -31826,7 +31838,7 @@
       <c r="AE357" s="103"/>
       <c r="AF357" s="103"/>
     </row>
-    <row r="358" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:32" ht="50" customHeight="1">
       <c r="A358" s="198">
         <v>4</v>
       </c>
@@ -31889,7 +31901,7 @@
       <c r="AE358" s="103"/>
       <c r="AF358" s="103"/>
     </row>
-    <row r="359" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:32" ht="50" customHeight="1">
       <c r="A359" s="198">
         <v>4</v>
       </c>
@@ -31952,7 +31964,7 @@
       <c r="AE359" s="103"/>
       <c r="AF359" s="103"/>
     </row>
-    <row r="360" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:32" ht="50" customHeight="1">
       <c r="A360" s="198">
         <v>4</v>
       </c>
@@ -32015,7 +32027,7 @@
       <c r="AE360" s="103"/>
       <c r="AF360" s="103"/>
     </row>
-    <row r="361" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:32" ht="50" customHeight="1">
       <c r="A361" s="198">
         <v>4</v>
       </c>
@@ -32078,7 +32090,7 @@
       <c r="AE361" s="103"/>
       <c r="AF361" s="103"/>
     </row>
-    <row r="362" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:32" ht="50" customHeight="1">
       <c r="A362" s="198">
         <v>4</v>
       </c>
@@ -32141,7 +32153,7 @@
       <c r="AE362" s="103"/>
       <c r="AF362" s="103"/>
     </row>
-    <row r="363" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:32" ht="50" customHeight="1">
       <c r="A363" s="198">
         <v>4</v>
       </c>
@@ -32204,7 +32216,7 @@
       <c r="AE363" s="103"/>
       <c r="AF363" s="103"/>
     </row>
-    <row r="364" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:32" ht="50" customHeight="1">
       <c r="A364" s="198">
         <v>4</v>
       </c>
@@ -32271,7 +32283,7 @@
       <c r="AE364" s="103"/>
       <c r="AF364" s="103"/>
     </row>
-    <row r="365" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:32" ht="50" customHeight="1">
       <c r="A365" s="198">
         <v>4</v>
       </c>
@@ -32334,7 +32346,7 @@
       <c r="AE365" s="103"/>
       <c r="AF365" s="103"/>
     </row>
-    <row r="366" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:32" ht="50" customHeight="1">
       <c r="A366" s="198">
         <v>4</v>
       </c>
@@ -32397,7 +32409,7 @@
       <c r="AE366" s="103"/>
       <c r="AF366" s="103"/>
     </row>
-    <row r="367" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:32" ht="50" customHeight="1">
       <c r="A367" s="198">
         <v>4</v>
       </c>
@@ -32460,7 +32472,7 @@
       <c r="AE367" s="103"/>
       <c r="AF367" s="103"/>
     </row>
-    <row r="368" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:32" ht="50" customHeight="1">
       <c r="A368" s="198">
         <v>4</v>
       </c>
@@ -32523,7 +32535,7 @@
       <c r="AE368" s="103"/>
       <c r="AF368" s="103"/>
     </row>
-    <row r="369" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:32" ht="50" customHeight="1">
       <c r="A369" s="198">
         <v>4</v>
       </c>
@@ -32586,7 +32598,7 @@
       <c r="AE369" s="103"/>
       <c r="AF369" s="103"/>
     </row>
-    <row r="370" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:32" ht="50" customHeight="1">
       <c r="A370" s="198">
         <v>4</v>
       </c>
@@ -32649,7 +32661,7 @@
       <c r="AE370" s="103"/>
       <c r="AF370" s="103"/>
     </row>
-    <row r="371" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:32" ht="50" customHeight="1">
       <c r="A371" s="198">
         <v>4</v>
       </c>
@@ -32712,7 +32724,7 @@
       <c r="AE371" s="103"/>
       <c r="AF371" s="103"/>
     </row>
-    <row r="372" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:32" ht="50" customHeight="1">
       <c r="A372" s="198">
         <v>4</v>
       </c>
@@ -32775,7 +32787,7 @@
       <c r="AE372" s="103"/>
       <c r="AF372" s="103"/>
     </row>
-    <row r="373" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:32" ht="50" customHeight="1">
       <c r="A373" s="198">
         <v>4</v>
       </c>
@@ -32838,7 +32850,7 @@
       <c r="AE373" s="103"/>
       <c r="AF373" s="103"/>
     </row>
-    <row r="374" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:32" ht="50" customHeight="1">
       <c r="A374" s="198">
         <v>4</v>
       </c>
@@ -32901,7 +32913,7 @@
       <c r="AE374" s="103"/>
       <c r="AF374" s="103"/>
     </row>
-    <row r="375" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:32" ht="50" customHeight="1">
       <c r="A375" s="198">
         <v>4</v>
       </c>
@@ -32964,7 +32976,7 @@
       <c r="AE375" s="103"/>
       <c r="AF375" s="103"/>
     </row>
-    <row r="376" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:32" ht="50" customHeight="1">
       <c r="A376" s="198">
         <v>4</v>
       </c>
@@ -33027,7 +33039,7 @@
       <c r="AE376" s="103"/>
       <c r="AF376" s="103"/>
     </row>
-    <row r="377" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:32" ht="50" customHeight="1">
       <c r="A377" s="198">
         <v>4</v>
       </c>
@@ -33090,7 +33102,7 @@
       <c r="AE377" s="103"/>
       <c r="AF377" s="103"/>
     </row>
-    <row r="378" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:32" ht="50" customHeight="1">
       <c r="A378" s="198">
         <v>4</v>
       </c>
@@ -33153,7 +33165,7 @@
       <c r="AE378" s="103"/>
       <c r="AF378" s="103"/>
     </row>
-    <row r="379" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:32" ht="50" customHeight="1">
       <c r="A379" s="198">
         <v>4</v>
       </c>
@@ -33216,7 +33228,7 @@
       <c r="AE379" s="103"/>
       <c r="AF379" s="103"/>
     </row>
-    <row r="380" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:32" ht="50" customHeight="1">
       <c r="A380" s="198">
         <v>4</v>
       </c>
@@ -33281,7 +33293,7 @@
       <c r="AE380" s="103"/>
       <c r="AF380" s="103"/>
     </row>
-    <row r="381" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:32" ht="50" customHeight="1">
       <c r="A381" s="198">
         <v>4</v>
       </c>
@@ -33348,7 +33360,7 @@
       <c r="AE381" s="103"/>
       <c r="AF381" s="103"/>
     </row>
-    <row r="382" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:32" ht="50" customHeight="1">
       <c r="A382" s="198">
         <v>4</v>
       </c>
@@ -33411,7 +33423,7 @@
       <c r="AE382" s="103"/>
       <c r="AF382" s="103"/>
     </row>
-    <row r="383" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:32" ht="50" customHeight="1">
       <c r="A383" s="198">
         <v>4</v>
       </c>
@@ -33474,7 +33486,7 @@
       <c r="AE383" s="103"/>
       <c r="AF383" s="103"/>
     </row>
-    <row r="384" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:32" ht="50" customHeight="1">
       <c r="A384" s="198">
         <v>4</v>
       </c>
@@ -33539,7 +33551,7 @@
       <c r="AE384" s="103"/>
       <c r="AF384" s="103"/>
     </row>
-    <row r="385" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:32" ht="50" customHeight="1">
       <c r="A385" s="198">
         <v>4</v>
       </c>
@@ -33602,7 +33614,7 @@
       <c r="AE385" s="103"/>
       <c r="AF385" s="103"/>
     </row>
-    <row r="386" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:32" ht="50" customHeight="1">
       <c r="A386" s="198">
         <v>4</v>
       </c>
@@ -33665,7 +33677,7 @@
       <c r="AE386" s="103"/>
       <c r="AF386" s="103"/>
     </row>
-    <row r="387" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:32" ht="50" customHeight="1">
       <c r="A387" s="198">
         <v>4</v>
       </c>
@@ -33728,7 +33740,7 @@
       <c r="AE387" s="103"/>
       <c r="AF387" s="103"/>
     </row>
-    <row r="388" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:32" ht="50" customHeight="1">
       <c r="A388" s="198">
         <v>4</v>
       </c>
@@ -33789,7 +33801,7 @@
       <c r="AE388" s="103"/>
       <c r="AF388" s="103"/>
     </row>
-    <row r="389" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:32" ht="50" customHeight="1">
       <c r="A389" s="198">
         <v>4</v>
       </c>
@@ -33852,7 +33864,7 @@
       <c r="AE389" s="103"/>
       <c r="AF389" s="103"/>
     </row>
-    <row r="390" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:32" ht="50" customHeight="1">
       <c r="A390" s="198">
         <v>4</v>
       </c>
@@ -33917,7 +33929,7 @@
       <c r="AE390" s="103"/>
       <c r="AF390" s="103"/>
     </row>
-    <row r="391" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:32" ht="50" customHeight="1">
       <c r="A391" s="198">
         <v>4</v>
       </c>
@@ -33980,7 +33992,7 @@
       <c r="AE391" s="103"/>
       <c r="AF391" s="103"/>
     </row>
-    <row r="392" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:32" ht="50" customHeight="1">
       <c r="A392" s="198">
         <v>4</v>
       </c>
@@ -34043,7 +34055,7 @@
       <c r="AE392" s="103"/>
       <c r="AF392" s="103"/>
     </row>
-    <row r="393" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:32" ht="50" customHeight="1">
       <c r="A393" s="198">
         <v>4</v>
       </c>
@@ -34106,7 +34118,7 @@
       <c r="AE393" s="103"/>
       <c r="AF393" s="103"/>
     </row>
-    <row r="394" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:32" ht="50" customHeight="1">
       <c r="A394" s="198">
         <v>4</v>
       </c>
@@ -34169,7 +34181,7 @@
       <c r="AE394" s="103"/>
       <c r="AF394" s="103"/>
     </row>
-    <row r="395" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:32" ht="50" customHeight="1">
       <c r="A395" s="198">
         <v>4</v>
       </c>
@@ -34247,7 +34259,7 @@
       <c r="AE395" s="156"/>
       <c r="AF395" s="156"/>
     </row>
-    <row r="396" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:32" ht="50" customHeight="1">
       <c r="A396" s="198">
         <v>4</v>
       </c>
@@ -34311,7 +34323,7 @@
       <c r="AE396" s="156"/>
       <c r="AF396" s="156"/>
     </row>
-    <row r="397" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:32" ht="50" customHeight="1">
       <c r="A397" s="198">
         <v>4</v>
       </c>
@@ -34374,7 +34386,7 @@
       <c r="AE397" s="103"/>
       <c r="AF397" s="103"/>
     </row>
-    <row r="398" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:32" ht="50" customHeight="1">
       <c r="A398" s="198">
         <v>4</v>
       </c>
@@ -34437,7 +34449,7 @@
       <c r="AE398" s="103"/>
       <c r="AF398" s="103"/>
     </row>
-    <row r="399" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:32" ht="50" customHeight="1">
       <c r="A399" s="198">
         <v>4</v>
       </c>
@@ -34500,7 +34512,7 @@
       <c r="AE399" s="103"/>
       <c r="AF399" s="103"/>
     </row>
-    <row r="400" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:32" ht="50" customHeight="1">
       <c r="A400" s="120">
         <v>4</v>
       </c>
@@ -34580,7 +34592,7 @@
       <c r="AE400" s="156"/>
       <c r="AF400" s="156"/>
     </row>
-    <row r="401" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:32" ht="50" customHeight="1">
       <c r="A401" s="107">
         <v>5</v>
       </c>
@@ -34660,7 +34672,7 @@
       <c r="AE401" s="89"/>
       <c r="AF401" s="89"/>
     </row>
-    <row r="402" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:32" ht="50" customHeight="1">
       <c r="A402" s="107">
         <v>5</v>
       </c>
@@ -34722,7 +34734,7 @@
       <c r="AE402" s="89"/>
       <c r="AF402" s="89"/>
     </row>
-    <row r="403" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:32" ht="50" customHeight="1">
       <c r="A403" s="107">
         <v>5</v>
       </c>
@@ -34782,7 +34794,7 @@
       <c r="AE403" s="89"/>
       <c r="AF403" s="89"/>
     </row>
-    <row r="404" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:32" ht="50" customHeight="1">
       <c r="A404" s="107">
         <v>5</v>
       </c>
@@ -34844,7 +34856,7 @@
       <c r="AE404" s="103"/>
       <c r="AF404" s="103"/>
     </row>
-    <row r="405" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:32" ht="50" customHeight="1">
       <c r="A405" s="107">
         <v>5</v>
       </c>
@@ -34904,7 +34916,7 @@
       <c r="AE405" s="103"/>
       <c r="AF405" s="103"/>
     </row>
-    <row r="406" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:32" ht="50" customHeight="1">
       <c r="A406" s="107">
         <v>5</v>
       </c>
@@ -34964,7 +34976,7 @@
       <c r="AE406" s="103"/>
       <c r="AF406" s="103"/>
     </row>
-    <row r="407" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:32" ht="50" customHeight="1">
       <c r="A407" s="107">
         <v>5</v>
       </c>
@@ -35024,7 +35036,7 @@
       <c r="AE407" s="103"/>
       <c r="AF407" s="103"/>
     </row>
-    <row r="408" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:32" ht="50" customHeight="1">
       <c r="A408" s="107">
         <v>5</v>
       </c>
@@ -35084,7 +35096,7 @@
       <c r="AE408" s="103"/>
       <c r="AF408" s="103"/>
     </row>
-    <row r="409" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:32" ht="50" customHeight="1">
       <c r="A409" s="107">
         <v>5</v>
       </c>
@@ -35144,7 +35156,7 @@
       <c r="AE409" s="89"/>
       <c r="AF409" s="89"/>
     </row>
-    <row r="410" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:32" ht="50" customHeight="1">
       <c r="A410" s="107">
         <v>5</v>
       </c>
@@ -35206,7 +35218,7 @@
       <c r="AE410" s="89"/>
       <c r="AF410" s="89"/>
     </row>
-    <row r="411" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:32" ht="50" customHeight="1">
       <c r="A411" s="107">
         <v>5</v>
       </c>
@@ -35270,7 +35282,7 @@
       <c r="AE411" s="89"/>
       <c r="AF411" s="89"/>
     </row>
-    <row r="412" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:32" ht="50" customHeight="1">
       <c r="A412" s="107">
         <v>5</v>
       </c>
@@ -35330,7 +35342,7 @@
       <c r="AE412" s="89"/>
       <c r="AF412" s="89"/>
     </row>
-    <row r="413" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:32" ht="50" customHeight="1">
       <c r="A413" s="107">
         <v>5</v>
       </c>
@@ -35390,7 +35402,7 @@
       <c r="AE413" s="154"/>
       <c r="AF413" s="154"/>
     </row>
-    <row r="414" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:32" ht="50" customHeight="1">
       <c r="A414" s="107">
         <v>5</v>
       </c>
@@ -35450,7 +35462,7 @@
       <c r="AE414" s="154"/>
       <c r="AF414" s="154"/>
     </row>
-    <row r="415" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:32" ht="50" customHeight="1">
       <c r="A415" s="107">
         <v>5</v>
       </c>
@@ -35510,7 +35522,7 @@
       <c r="AE415" s="156"/>
       <c r="AF415" s="156"/>
     </row>
-    <row r="416" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:32" ht="50" customHeight="1">
       <c r="A416" s="107">
         <v>5</v>
       </c>
@@ -35570,7 +35582,7 @@
       <c r="AE416" s="156"/>
       <c r="AF416" s="156"/>
     </row>
-    <row r="417" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:32" ht="50" customHeight="1">
       <c r="A417" s="107">
         <v>5</v>
       </c>
@@ -35630,7 +35642,7 @@
       <c r="AE417" s="156"/>
       <c r="AF417" s="156"/>
     </row>
-    <row r="418" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:32" ht="50" customHeight="1">
       <c r="A418" s="107">
         <v>5</v>
       </c>
@@ -35692,7 +35704,7 @@
       <c r="AE418" s="89"/>
       <c r="AF418" s="89"/>
     </row>
-    <row r="419" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:32" ht="50" customHeight="1">
       <c r="A419" s="107">
         <v>5</v>
       </c>
@@ -35752,7 +35764,7 @@
       <c r="AE419" s="89"/>
       <c r="AF419" s="89"/>
     </row>
-    <row r="420" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:32" ht="50" customHeight="1">
       <c r="A420" s="107">
         <v>5</v>
       </c>
@@ -35816,7 +35828,7 @@
       <c r="AE420" s="103"/>
       <c r="AF420" s="103"/>
     </row>
-    <row r="421" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:32" ht="50" customHeight="1">
       <c r="A421" s="107">
         <v>5</v>
       </c>
@@ -35876,7 +35888,7 @@
       <c r="AE421" s="89"/>
       <c r="AF421" s="89"/>
     </row>
-    <row r="422" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:32" ht="50" customHeight="1">
       <c r="A422" s="107">
         <v>5</v>
       </c>
@@ -35940,7 +35952,7 @@
       <c r="AE422" s="89"/>
       <c r="AF422" s="89"/>
     </row>
-    <row r="423" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:32" ht="50" customHeight="1">
       <c r="A423" s="107">
         <v>5</v>
       </c>
@@ -36000,7 +36012,7 @@
       <c r="AE423" s="89"/>
       <c r="AF423" s="89"/>
     </row>
-    <row r="424" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:32" ht="50" customHeight="1">
       <c r="A424" s="107">
         <v>5</v>
       </c>
@@ -36060,7 +36072,7 @@
       <c r="AE424" s="156"/>
       <c r="AF424" s="156"/>
     </row>
-    <row r="425" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:32" ht="50" customHeight="1">
       <c r="A425" s="107">
         <v>5</v>
       </c>
@@ -36120,7 +36132,7 @@
       <c r="AE425" s="156"/>
       <c r="AF425" s="156"/>
     </row>
-    <row r="426" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:32" ht="50" customHeight="1">
       <c r="A426" s="107">
         <v>5</v>
       </c>
@@ -36184,7 +36196,7 @@
       <c r="AE426" s="103"/>
       <c r="AF426" s="103"/>
     </row>
-    <row r="427" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:32" ht="50" customHeight="1">
       <c r="A427" s="107">
         <v>5</v>
       </c>
@@ -36244,7 +36256,7 @@
       <c r="AE427" s="89"/>
       <c r="AF427" s="89"/>
     </row>
-    <row r="428" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:32" ht="50" customHeight="1">
       <c r="A428" s="107">
         <v>5</v>
       </c>
@@ -36306,7 +36318,7 @@
       <c r="AE428" s="103"/>
       <c r="AF428" s="103"/>
     </row>
-    <row r="429" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:32" ht="50" customHeight="1">
       <c r="A429" s="107">
         <v>5</v>
       </c>
@@ -36366,7 +36378,7 @@
       <c r="AE429" s="89"/>
       <c r="AF429" s="89"/>
     </row>
-    <row r="430" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:32" ht="50" customHeight="1">
       <c r="A430" s="107">
         <v>5</v>
       </c>
@@ -36422,7 +36434,7 @@
       <c r="AE430" s="89"/>
       <c r="AF430" s="89"/>
     </row>
-    <row r="431" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:32" ht="50" customHeight="1">
       <c r="A431" s="107">
         <v>5</v>
       </c>
@@ -36500,7 +36512,7 @@
       <c r="AE431" s="89"/>
       <c r="AF431" s="89"/>
     </row>
-    <row r="432" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:32" ht="50" customHeight="1">
       <c r="A432" s="107">
         <v>5</v>
       </c>
@@ -36560,7 +36572,7 @@
       <c r="AE432" s="89"/>
       <c r="AF432" s="89"/>
     </row>
-    <row r="433" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:32" ht="50" customHeight="1">
       <c r="A433" s="107">
         <v>5</v>
       </c>
@@ -36620,7 +36632,7 @@
       <c r="AE433" s="89"/>
       <c r="AF433" s="89"/>
     </row>
-    <row r="434" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:32" ht="50" customHeight="1">
       <c r="A434" s="107">
         <v>5</v>
       </c>
@@ -36680,7 +36692,7 @@
       <c r="AE434" s="89"/>
       <c r="AF434" s="89"/>
     </row>
-    <row r="435" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:32" ht="50" customHeight="1">
       <c r="A435" s="107">
         <v>5</v>
       </c>
@@ -36740,7 +36752,7 @@
       <c r="AE435" s="89"/>
       <c r="AF435" s="89"/>
     </row>
-    <row r="436" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:32" ht="50" customHeight="1">
       <c r="A436" s="107">
         <v>5</v>
       </c>
@@ -36800,7 +36812,7 @@
       <c r="AE436" s="89"/>
       <c r="AF436" s="89"/>
     </row>
-    <row r="437" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:32" ht="50" customHeight="1">
       <c r="A437" s="107">
         <v>5</v>
       </c>
@@ -36860,7 +36872,7 @@
       <c r="AE437" s="89"/>
       <c r="AF437" s="89"/>
     </row>
-    <row r="438" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:32" ht="50" customHeight="1">
       <c r="A438" s="107">
         <v>5</v>
       </c>
@@ -36920,7 +36932,7 @@
       <c r="AE438" s="89"/>
       <c r="AF438" s="89"/>
     </row>
-    <row r="439" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:32" ht="50" customHeight="1">
       <c r="A439" s="107">
         <v>5</v>
       </c>
@@ -36980,7 +36992,7 @@
       <c r="AE439" s="89"/>
       <c r="AF439" s="89"/>
     </row>
-    <row r="440" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:32" ht="50" customHeight="1">
       <c r="A440" s="107">
         <v>5</v>
       </c>
@@ -37040,7 +37052,7 @@
       <c r="AE440" s="89"/>
       <c r="AF440" s="89"/>
     </row>
-    <row r="441" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:32" ht="50" customHeight="1">
       <c r="A441" s="107">
         <v>5</v>
       </c>
@@ -37100,7 +37112,7 @@
       <c r="AE441" s="89"/>
       <c r="AF441" s="89"/>
     </row>
-    <row r="442" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:32" ht="50" customHeight="1">
       <c r="A442" s="107">
         <v>5</v>
       </c>
@@ -37160,7 +37172,7 @@
       <c r="AE442" s="89"/>
       <c r="AF442" s="89"/>
     </row>
-    <row r="443" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:32" ht="50" customHeight="1">
       <c r="A443" s="107">
         <v>5</v>
       </c>
@@ -37220,7 +37232,7 @@
       <c r="AE443" s="89"/>
       <c r="AF443" s="89"/>
     </row>
-    <row r="444" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:32" ht="50" customHeight="1">
       <c r="A444" s="107">
         <v>5</v>
       </c>
@@ -37280,7 +37292,7 @@
       <c r="AE444" s="89"/>
       <c r="AF444" s="89"/>
     </row>
-    <row r="445" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:32" ht="50" customHeight="1">
       <c r="A445" s="107">
         <v>5</v>
       </c>
@@ -37340,7 +37352,7 @@
       <c r="AE445" s="89"/>
       <c r="AF445" s="89"/>
     </row>
-    <row r="446" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:32" ht="50" customHeight="1">
       <c r="A446" s="107">
         <v>5</v>
       </c>
@@ -37400,7 +37412,7 @@
       <c r="AE446" s="89"/>
       <c r="AF446" s="89"/>
     </row>
-    <row r="447" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:32" ht="50" customHeight="1">
       <c r="A447" s="107">
         <v>5</v>
       </c>
@@ -37460,7 +37472,7 @@
       <c r="AE447" s="89"/>
       <c r="AF447" s="89"/>
     </row>
-    <row r="448" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:32" ht="50" customHeight="1">
       <c r="A448" s="107">
         <v>5</v>
       </c>
@@ -37524,7 +37536,7 @@
       <c r="AE448" s="89"/>
       <c r="AF448" s="89"/>
     </row>
-    <row r="449" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:32" ht="50" customHeight="1">
       <c r="A449" s="107">
         <v>5</v>
       </c>
@@ -37584,7 +37596,7 @@
       <c r="AE449" s="89"/>
       <c r="AF449" s="89"/>
     </row>
-    <row r="450" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:32" ht="50" customHeight="1">
       <c r="A450" s="107">
         <v>5</v>
       </c>
@@ -37644,7 +37656,7 @@
       <c r="AE450" s="89"/>
       <c r="AF450" s="89"/>
     </row>
-    <row r="451" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:32" ht="50" customHeight="1">
       <c r="A451" s="107">
         <v>5</v>
       </c>
@@ -37704,7 +37716,7 @@
       <c r="AE451" s="89"/>
       <c r="AF451" s="89"/>
     </row>
-    <row r="452" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:32" ht="50" customHeight="1">
       <c r="A452" s="107">
         <v>5</v>
       </c>
@@ -37764,7 +37776,7 @@
       <c r="AE452" s="89"/>
       <c r="AF452" s="89"/>
     </row>
-    <row r="453" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:32" ht="50" customHeight="1">
       <c r="A453" s="107">
         <v>5</v>
       </c>
@@ -37824,7 +37836,7 @@
       <c r="AE453" s="89"/>
       <c r="AF453" s="89"/>
     </row>
-    <row r="454" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:32" ht="50" customHeight="1">
       <c r="A454" s="107">
         <v>5</v>
       </c>
@@ -37884,7 +37896,7 @@
       <c r="AE454" s="89"/>
       <c r="AF454" s="89"/>
     </row>
-    <row r="455" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:32" ht="50" customHeight="1">
       <c r="A455" s="107">
         <v>5</v>
       </c>
@@ -37944,7 +37956,7 @@
       <c r="AE455" s="89"/>
       <c r="AF455" s="89"/>
     </row>
-    <row r="456" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:32" ht="50" customHeight="1">
       <c r="A456" s="107">
         <v>5</v>
       </c>
@@ -38004,7 +38016,7 @@
       <c r="AE456" s="89"/>
       <c r="AF456" s="89"/>
     </row>
-    <row r="457" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:32" ht="50" customHeight="1">
       <c r="A457" s="107">
         <v>5</v>
       </c>
@@ -38064,7 +38076,7 @@
       <c r="AE457" s="89"/>
       <c r="AF457" s="89"/>
     </row>
-    <row r="458" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:32" ht="50" customHeight="1">
       <c r="A458" s="107">
         <v>5</v>
       </c>
@@ -38124,7 +38136,7 @@
       <c r="AE458" s="89"/>
       <c r="AF458" s="89"/>
     </row>
-    <row r="459" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:32" ht="50" customHeight="1">
       <c r="A459" s="107">
         <v>5</v>
       </c>
@@ -38184,7 +38196,7 @@
       <c r="AE459" s="89"/>
       <c r="AF459" s="89"/>
     </row>
-    <row r="460" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:32" ht="50" customHeight="1">
       <c r="A460" s="107">
         <v>5</v>
       </c>
@@ -38244,7 +38256,7 @@
       <c r="AE460" s="89"/>
       <c r="AF460" s="89"/>
     </row>
-    <row r="461" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:32" ht="50" customHeight="1">
       <c r="A461" s="107">
         <v>5</v>
       </c>
@@ -38304,7 +38316,7 @@
       <c r="AE461" s="89"/>
       <c r="AF461" s="89"/>
     </row>
-    <row r="462" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:32" ht="50" customHeight="1">
       <c r="A462" s="107">
         <v>5</v>
       </c>
@@ -38364,7 +38376,7 @@
       <c r="AE462" s="89"/>
       <c r="AF462" s="89"/>
     </row>
-    <row r="463" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:32" ht="50" customHeight="1">
       <c r="A463" s="107">
         <v>5</v>
       </c>
@@ -38424,7 +38436,7 @@
       <c r="AE463" s="89"/>
       <c r="AF463" s="89"/>
     </row>
-    <row r="464" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:32" ht="50" customHeight="1">
       <c r="A464" s="107">
         <v>5</v>
       </c>
@@ -38486,7 +38498,7 @@
       <c r="AE464" s="89"/>
       <c r="AF464" s="89"/>
     </row>
-    <row r="465" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:32" ht="50" customHeight="1">
       <c r="A465" s="107">
         <v>5</v>
       </c>
@@ -38550,7 +38562,7 @@
       <c r="AE465" s="89"/>
       <c r="AF465" s="89"/>
     </row>
-    <row r="466" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:32" ht="50" customHeight="1">
       <c r="A466" s="107">
         <v>5</v>
       </c>
@@ -38610,7 +38622,7 @@
       <c r="AE466" s="89"/>
       <c r="AF466" s="89"/>
     </row>
-    <row r="467" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:32" ht="50" customHeight="1">
       <c r="A467" s="107">
         <v>5</v>
       </c>
@@ -38670,7 +38682,7 @@
       <c r="AE467" s="89"/>
       <c r="AF467" s="89"/>
     </row>
-    <row r="468" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:32" ht="50" customHeight="1">
       <c r="A468" s="107">
         <v>5</v>
       </c>
@@ -38732,7 +38744,7 @@
       <c r="AE468" s="89"/>
       <c r="AF468" s="89"/>
     </row>
-    <row r="469" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:32" ht="50" customHeight="1">
       <c r="A469" s="107">
         <v>5</v>
       </c>
@@ -38792,7 +38804,7 @@
       <c r="AE469" s="89"/>
       <c r="AF469" s="89"/>
     </row>
-    <row r="470" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:32" ht="50" customHeight="1">
       <c r="A470" s="107">
         <v>5</v>
       </c>
@@ -38852,7 +38864,7 @@
       <c r="AE470" s="89"/>
       <c r="AF470" s="89"/>
     </row>
-    <row r="471" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:32" ht="50" customHeight="1">
       <c r="A471" s="107">
         <v>5</v>
       </c>
@@ -38912,7 +38924,7 @@
       <c r="AE471" s="89"/>
       <c r="AF471" s="89"/>
     </row>
-    <row r="472" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:32" ht="50" customHeight="1">
       <c r="A472" s="107">
         <v>5</v>
       </c>
@@ -38970,7 +38982,7 @@
       <c r="AE472" s="89"/>
       <c r="AF472" s="89"/>
     </row>
-    <row r="473" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:32" ht="50" customHeight="1">
       <c r="A473" s="107">
         <v>5</v>
       </c>
@@ -39030,7 +39042,7 @@
       <c r="AE473" s="89"/>
       <c r="AF473" s="89"/>
     </row>
-    <row r="474" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:32" ht="50" customHeight="1">
       <c r="A474" s="107">
         <v>5</v>
       </c>
@@ -39092,7 +39104,7 @@
       <c r="AE474" s="89"/>
       <c r="AF474" s="89"/>
     </row>
-    <row r="475" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:32" ht="50" customHeight="1">
       <c r="A475" s="107">
         <v>5</v>
       </c>
@@ -39152,7 +39164,7 @@
       <c r="AE475" s="89"/>
       <c r="AF475" s="89"/>
     </row>
-    <row r="476" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:32" ht="50" customHeight="1">
       <c r="A476" s="107">
         <v>5</v>
       </c>
@@ -39212,7 +39224,7 @@
       <c r="AE476" s="89"/>
       <c r="AF476" s="89"/>
     </row>
-    <row r="477" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:32" ht="50" customHeight="1">
       <c r="A477" s="107">
         <v>5</v>
       </c>
@@ -39272,7 +39284,7 @@
       <c r="AE477" s="89"/>
       <c r="AF477" s="89"/>
     </row>
-    <row r="478" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:32" ht="50" customHeight="1">
       <c r="A478" s="107">
         <v>5</v>
       </c>
@@ -39332,7 +39344,7 @@
       <c r="AE478" s="89"/>
       <c r="AF478" s="89"/>
     </row>
-    <row r="479" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:32" ht="50" customHeight="1">
       <c r="A479" s="107">
         <v>5</v>
       </c>
@@ -39410,7 +39422,7 @@
       <c r="AE479" s="156"/>
       <c r="AF479" s="156"/>
     </row>
-    <row r="480" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:32" ht="50" customHeight="1">
       <c r="A480" s="107">
         <v>5</v>
       </c>
@@ -39470,7 +39482,7 @@
       <c r="AE480" s="156"/>
       <c r="AF480" s="156"/>
     </row>
-    <row r="481" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:32" ht="50" customHeight="1">
       <c r="A481" s="107">
         <v>5</v>
       </c>
@@ -39530,7 +39542,7 @@
       <c r="AE481" s="103"/>
       <c r="AF481" s="103"/>
     </row>
-    <row r="482" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:32" ht="50" customHeight="1">
       <c r="A482" s="107">
         <v>5</v>
       </c>
@@ -39590,7 +39602,7 @@
       <c r="AE482" s="103"/>
       <c r="AF482" s="103"/>
     </row>
-    <row r="483" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:32" ht="50" customHeight="1">
       <c r="A483" s="107">
         <v>5</v>
       </c>
@@ -39650,7 +39662,7 @@
       <c r="AE483" s="103"/>
       <c r="AF483" s="103"/>
     </row>
-    <row r="484" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:32" ht="50" customHeight="1">
       <c r="A484" s="107">
         <v>5</v>
       </c>
@@ -39730,7 +39742,7 @@
       <c r="AE484" s="156"/>
       <c r="AF484" s="156"/>
     </row>
-    <row r="485" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:32" ht="50" customHeight="1">
       <c r="A485" s="107">
         <v>6</v>
       </c>
@@ -39808,7 +39820,7 @@
       <c r="AE485" s="89"/>
       <c r="AF485" s="89"/>
     </row>
-    <row r="486" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:32" ht="50" customHeight="1">
       <c r="A486" s="107">
         <v>6</v>
       </c>
@@ -39873,7 +39885,7 @@
       <c r="AE486" s="89"/>
       <c r="AF486" s="89"/>
     </row>
-    <row r="487" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:32" ht="50" customHeight="1">
       <c r="A487" s="107">
         <v>6</v>
       </c>
@@ -39938,7 +39950,7 @@
       <c r="AE487" s="89"/>
       <c r="AF487" s="89"/>
     </row>
-    <row r="488" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:32" ht="50" customHeight="1">
       <c r="A488" s="107">
         <v>6</v>
       </c>
@@ -40001,7 +40013,7 @@
       <c r="AE488" s="89"/>
       <c r="AF488" s="89"/>
     </row>
-    <row r="489" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:32" ht="50" customHeight="1">
       <c r="A489" s="107">
         <v>6</v>
       </c>
@@ -40064,7 +40076,7 @@
       <c r="AE489" s="89"/>
       <c r="AF489" s="89"/>
     </row>
-    <row r="490" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:32" ht="50" customHeight="1">
       <c r="A490" s="107">
         <v>6</v>
       </c>
@@ -40127,7 +40139,7 @@
       <c r="AE490" s="244"/>
       <c r="AF490" s="244"/>
     </row>
-    <row r="491" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:32" ht="50" customHeight="1">
       <c r="A491" s="107">
         <v>6</v>
       </c>
@@ -40191,7 +40203,7 @@
       <c r="AE491" s="103"/>
       <c r="AF491" s="103"/>
     </row>
-    <row r="492" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:32" ht="50" customHeight="1">
       <c r="A492" s="107">
         <v>6</v>
       </c>
@@ -40288,10 +40300,10 @@
     <mergeCell ref="AJ7:AJ8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z34:Z38">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="57">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="58">
       <formula>LEN(TRIM(Z34))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="34" priority="58">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="57">
       <formula>LEN(TRIM(Z34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40312,10 +40324,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z151:Z152">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="14">
       <formula>LEN(TRIM(Z151))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="28" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="13">
       <formula>LEN(TRIM(Z151))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40352,10 +40364,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z413:Z417">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="4">
       <formula>LEN(TRIM(Z413))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="3">
       <formula>LEN(TRIM(Z413))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
